--- a/RPRX.xlsx
+++ b/RPRX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478BEB4C-8632-4885-8352-350783E0F46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC85943-B61F-4864-BF4A-24240F9A22A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="2295" windowWidth="24870" windowHeight="17595" activeTab="1" xr2:uid="{94D9BD71-8B15-4AF3-9192-B3E60893D3C5}"/>
+    <workbookView xWindow="-30165" yWindow="915" windowWidth="27885" windowHeight="20745" xr2:uid="{94D9BD71-8B15-4AF3-9192-B3E60893D3C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="128">
   <si>
     <t>Price</t>
   </si>
@@ -139,13 +139,298 @@
   </si>
   <si>
     <t>CFFO</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Tysabri End-Market</t>
+  </si>
+  <si>
+    <t>CF Royalties</t>
+  </si>
+  <si>
+    <t>CF End-Market</t>
+  </si>
+  <si>
+    <t>Tysabri Royalties</t>
+  </si>
+  <si>
+    <t>Imbruvica End-Market</t>
+  </si>
+  <si>
+    <t>Imbruvica Royalties</t>
+  </si>
+  <si>
+    <t>Xtandi End-Market</t>
+  </si>
+  <si>
+    <t>Xtandi Royalties</t>
+  </si>
+  <si>
+    <t>Promacta End-Market</t>
+  </si>
+  <si>
+    <t>Promacta Royalties</t>
+  </si>
+  <si>
+    <t>Tremfya End-Market</t>
+  </si>
+  <si>
+    <t>Tremfya Royalties</t>
+  </si>
+  <si>
+    <t>Trelegy</t>
+  </si>
+  <si>
+    <t>Januvia</t>
+  </si>
+  <si>
+    <t>Oxlumo</t>
+  </si>
+  <si>
+    <t>Emgality</t>
+  </si>
+  <si>
+    <t>Crysvita</t>
+  </si>
+  <si>
+    <t>Erleada</t>
+  </si>
+  <si>
+    <t>Orladeyo</t>
+  </si>
+  <si>
+    <t>Trodelvy</t>
+  </si>
+  <si>
+    <t>Prevymis</t>
+  </si>
+  <si>
+    <t>Evrysdi</t>
+  </si>
+  <si>
+    <t>Farxiga</t>
+  </si>
+  <si>
+    <t>Cabometyx</t>
+  </si>
+  <si>
+    <t>Other Products</t>
+  </si>
+  <si>
+    <t>aficamten</t>
+  </si>
+  <si>
+    <t>ampreloxetine</t>
+  </si>
+  <si>
+    <t>BCX10013</t>
+  </si>
+  <si>
+    <t>MK-8189</t>
+  </si>
+  <si>
+    <t>olpsairan</t>
+  </si>
+  <si>
+    <t>omecamtiv mecarbil</t>
+  </si>
+  <si>
+    <t>pelabresib</t>
+  </si>
+  <si>
+    <t>pelacarsen</t>
+  </si>
+  <si>
+    <t>seltorexant</t>
+  </si>
+  <si>
+    <t>trontinemab</t>
+  </si>
+  <si>
+    <t>tulmimetostat</t>
+  </si>
+  <si>
+    <t>zavegepant</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>MOA</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Roche</t>
+  </si>
+  <si>
+    <t>transferrin-gantenerumab</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <t>Alzheimer's</t>
+  </si>
+  <si>
+    <t>PFE</t>
+  </si>
+  <si>
+    <t>MOR</t>
+  </si>
+  <si>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>NVS</t>
+  </si>
+  <si>
+    <t>CYTK</t>
+  </si>
+  <si>
+    <t>AMGN</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>Schizophrenia</t>
+  </si>
+  <si>
+    <t>PDE10A inhibitor</t>
+  </si>
+  <si>
+    <t>LP(a) siRNA</t>
+  </si>
+  <si>
+    <t>BET inhibitor</t>
+  </si>
+  <si>
+    <t>Myelofibrosis</t>
+  </si>
+  <si>
+    <t>Orexin 2 antagonist</t>
+  </si>
+  <si>
+    <t>Insomnia</t>
+  </si>
+  <si>
+    <t>EZH2 inhibitor</t>
+  </si>
+  <si>
+    <t>Migraine</t>
+  </si>
+  <si>
+    <t>CGRP</t>
+  </si>
+  <si>
+    <t>Manager: 75 employees</t>
+  </si>
+  <si>
+    <t>Company: executive officers</t>
+  </si>
+  <si>
+    <t>Royalty Receipts</t>
+  </si>
+  <si>
+    <t>Tazverik</t>
+  </si>
+  <si>
+    <t>One-Time</t>
+  </si>
+  <si>
+    <t>Total Cash-In</t>
+  </si>
+  <si>
+    <t>Cash-In</t>
+  </si>
+  <si>
+    <t>Distributions to Legacy</t>
+  </si>
+  <si>
+    <t>Adj Cash Receipts</t>
+  </si>
+  <si>
+    <t>Professional Costs</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t>Funding Payments</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Investments/Other</t>
+  </si>
+  <si>
+    <t>S/O</t>
+  </si>
+  <si>
+    <t>CFPS</t>
+  </si>
+  <si>
+    <t>Royalty Assets</t>
+  </si>
+  <si>
+    <t>Royalty Receivable</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>NCI payable</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>Reported CFFO</t>
+  </si>
+  <si>
+    <t>Acquisitions</t>
+  </si>
+  <si>
+    <t>Legacy NCI</t>
+  </si>
+  <si>
+    <t>Dividends</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -154,6 +439,14 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -168,7 +461,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -176,11 +469,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -197,12 +576,25 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F5B3A8A5-0B19-4FAA-8CEA-94FE262ED3FD}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -218,16 +610,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>29765</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4699</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
+      <xdr:rowOff>45119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>29765</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>4699</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>33213</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -242,8 +634,58 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8251031" y="59531"/>
-          <a:ext cx="0" cy="5935266"/>
+          <a:off x="8888015" y="45119"/>
+          <a:ext cx="0" cy="8329989"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>30079</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>30079</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09AFBB88-8E4E-A2A9-CB2F-51EDE0399436}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15707363" y="50132"/>
+          <a:ext cx="0" cy="13029425"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -566,74 +1008,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84BD893-C181-4171-97CF-57470801B437}">
-  <dimension ref="K2:M7"/>
+  <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="16"/>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
+        <v>35.67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <f>441.104204+166.117591</f>
-        <v>607.22179499999993</v>
+        <f>443.16603+164.057651</f>
+        <v>607.22368099999994</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>25503.315389999996</v>
-      </c>
-    </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
+        <v>21659.668701269999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <f>991.628+139.926+409.347+409.857+339.8+262.82</f>
-        <v>2553.3780000000002</v>
+        <v>2472</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="10"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="2">
-        <f>6114.677+996.583</f>
-        <v>7111.2599999999993</v>
+        <v>7116</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>30061.197389999994</v>
+        <v>26303.668701269999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="J12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="J13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -644,28 +1276,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1713F4E8-A8CE-4B18-916E-E9E556347FDE}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:AO77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AH16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="AO34" sqref="AO34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="14" width="9.140625" style="3"/>
+    <col min="41" max="41" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -702,10 +1335,91 @@
       <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2">
+        <v>2018</v>
+      </c>
+      <c r="V2">
+        <v>2019</v>
+      </c>
+      <c r="W2">
+        <v>2020</v>
+      </c>
+      <c r="X2">
+        <f>W2+1</f>
+        <v>2021</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2:AL2" si="0">X2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="AL2">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -713,20 +1427,23 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="4">
-        <v>505.83199999999999</v>
-      </c>
+      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="4">
-        <v>551.68200000000002</v>
-      </c>
+      <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="Y3" s="2">
+        <v>8931</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -734,20 +1451,74 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4">
-        <v>63.405999999999999</v>
-      </c>
+      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4">
-        <v>1.073</v>
-      </c>
+      <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X4" s="2">
+        <v>702.14</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>811</v>
+      </c>
+      <c r="Z4" s="2">
+        <f>Y4*1.05</f>
+        <v>851.55000000000007</v>
+      </c>
+      <c r="AA4" s="2">
+        <f t="shared" ref="AA4:AJ4" si="1">Z4*1.05</f>
+        <v>894.12750000000005</v>
+      </c>
+      <c r="AB4" s="2">
+        <f t="shared" si="1"/>
+        <v>938.83387500000015</v>
+      </c>
+      <c r="AC4" s="2">
+        <f t="shared" si="1"/>
+        <v>985.77556875000016</v>
+      </c>
+      <c r="AD4" s="2">
+        <f t="shared" si="1"/>
+        <v>1035.0643471875003</v>
+      </c>
+      <c r="AE4" s="2">
+        <f t="shared" si="1"/>
+        <v>1086.8175645468752</v>
+      </c>
+      <c r="AF4" s="2">
+        <f t="shared" si="1"/>
+        <v>1141.1584427742191</v>
+      </c>
+      <c r="AG4" s="2">
+        <f t="shared" si="1"/>
+        <v>1198.2163649129302</v>
+      </c>
+      <c r="AH4" s="2">
+        <f t="shared" si="1"/>
+        <v>1258.1271831585768</v>
+      </c>
+      <c r="AI4" s="2">
+        <f t="shared" si="1"/>
+        <v>1321.0335423165056</v>
+      </c>
+      <c r="AJ4" s="2">
+        <f t="shared" si="1"/>
+        <v>1387.0852194323311</v>
+      </c>
+      <c r="AK4" s="2">
+        <f>AJ4*0.9</f>
+        <v>1248.376697489098</v>
+      </c>
+      <c r="AL4" s="2">
+        <f>AK4*0.1</f>
+        <v>124.8376697489098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -755,43 +1526,94 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4">
-        <v>16.535</v>
-      </c>
+      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4">
-        <v>20.707999999999998</v>
-      </c>
+      <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6">
-        <f>SUM(I3:I5)</f>
-        <v>585.77299999999991</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6">
-        <f>SUM(M3:M5)</f>
-        <v>573.46299999999997</v>
-      </c>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y5" s="2">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="X6" s="2">
+        <v>369.149</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>370</v>
+      </c>
+      <c r="Z6" s="2">
+        <f>Y6*0.95</f>
+        <v>351.5</v>
+      </c>
+      <c r="AA6" s="2">
+        <f t="shared" ref="AA6:AL6" si="2">Z6*0.95</f>
+        <v>333.92500000000001</v>
+      </c>
+      <c r="AB6" s="2">
+        <f t="shared" si="2"/>
+        <v>317.22874999999999</v>
+      </c>
+      <c r="AC6" s="2">
+        <f t="shared" si="2"/>
+        <v>301.36731249999997</v>
+      </c>
+      <c r="AD6" s="2">
+        <f t="shared" si="2"/>
+        <v>286.29894687499996</v>
+      </c>
+      <c r="AE6" s="2">
+        <f t="shared" si="2"/>
+        <v>271.98399953124994</v>
+      </c>
+      <c r="AF6" s="2">
+        <f t="shared" si="2"/>
+        <v>258.38479955468745</v>
+      </c>
+      <c r="AG6" s="2">
+        <f t="shared" si="2"/>
+        <v>245.46555957695307</v>
+      </c>
+      <c r="AH6" s="2">
+        <f t="shared" si="2"/>
+        <v>233.19228159810541</v>
+      </c>
+      <c r="AI6" s="2">
+        <f t="shared" si="2"/>
+        <v>221.53266751820013</v>
+      </c>
+      <c r="AJ6" s="2">
+        <f t="shared" si="2"/>
+        <v>210.45603414229012</v>
+      </c>
+      <c r="AK6" s="2">
+        <f t="shared" si="2"/>
+        <v>199.9332324351756</v>
+      </c>
+      <c r="AL6" s="2">
+        <f t="shared" si="2"/>
+        <v>189.93657081341681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -799,20 +1621,19 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4">
-        <v>137.83699999999999</v>
-      </c>
+      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="4">
-        <v>305.06099999999998</v>
-      </c>
+      <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2">
+        <v>5820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -820,220 +1641,2095 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="4">
-        <v>90.5</v>
-      </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="4">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="X8" s="2">
+        <v>352.911</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>313</v>
+      </c>
+      <c r="Z8" s="2">
+        <f>Y8*0.9</f>
+        <v>281.7</v>
+      </c>
+      <c r="AA8" s="2">
+        <f t="shared" ref="AA8:AL8" si="3">Z8*0.9</f>
+        <v>253.53</v>
+      </c>
+      <c r="AB8" s="2">
+        <f t="shared" si="3"/>
+        <v>228.17699999999999</v>
+      </c>
+      <c r="AC8" s="2">
+        <f t="shared" si="3"/>
+        <v>205.35929999999999</v>
+      </c>
+      <c r="AD8" s="2">
+        <f t="shared" si="3"/>
+        <v>184.82336999999998</v>
+      </c>
+      <c r="AE8" s="2">
+        <f t="shared" si="3"/>
+        <v>166.34103299999998</v>
+      </c>
+      <c r="AF8" s="2">
+        <f t="shared" si="3"/>
+        <v>149.70692969999999</v>
+      </c>
+      <c r="AG8" s="2">
+        <f t="shared" si="3"/>
+        <v>134.73623673</v>
+      </c>
+      <c r="AH8" s="2">
+        <f t="shared" si="3"/>
+        <v>121.26261305700001</v>
+      </c>
+      <c r="AI8" s="2">
+        <f t="shared" si="3"/>
+        <v>109.13635175130001</v>
+      </c>
+      <c r="AJ8" s="2">
+        <f t="shared" si="3"/>
+        <v>98.222716576170015</v>
+      </c>
+      <c r="AK8" s="2">
+        <f t="shared" si="3"/>
+        <v>88.400444918553021</v>
+      </c>
+      <c r="AL8" s="2">
+        <f t="shared" si="3"/>
+        <v>79.560400426697726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2">
+        <v>4817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X10" s="2">
+        <v>158.10300000000001</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>187</v>
+      </c>
+      <c r="Z10" s="2">
+        <f>Y10*1.01</f>
+        <v>188.87</v>
+      </c>
+      <c r="AA10" s="2">
+        <f t="shared" ref="AA10:AG10" si="4">Z10*1.01</f>
+        <v>190.7587</v>
+      </c>
+      <c r="AB10" s="2">
+        <f t="shared" si="4"/>
+        <v>192.66628700000001</v>
+      </c>
+      <c r="AC10" s="2">
+        <f t="shared" si="4"/>
+        <v>194.59294987000001</v>
+      </c>
+      <c r="AD10" s="2">
+        <f t="shared" si="4"/>
+        <v>196.53887936870001</v>
+      </c>
+      <c r="AE10" s="2">
+        <f t="shared" si="4"/>
+        <v>198.50426816238701</v>
+      </c>
+      <c r="AF10" s="2">
+        <f t="shared" si="4"/>
+        <v>200.48931084401087</v>
+      </c>
+      <c r="AG10" s="2">
+        <f t="shared" si="4"/>
+        <v>202.49420395245099</v>
+      </c>
+      <c r="AH10" s="2">
+        <f>AG10*0.5</f>
+        <v>101.24710197622549</v>
+      </c>
+      <c r="AI10" s="2">
+        <f t="shared" ref="AI10:AL10" si="5">AH10*0.5</f>
+        <v>50.623550988112747</v>
+      </c>
+      <c r="AJ10" s="2">
+        <f t="shared" si="5"/>
+        <v>25.311775494056374</v>
+      </c>
+      <c r="AK10" s="2">
+        <f t="shared" si="5"/>
+        <v>12.655887747028187</v>
+      </c>
+      <c r="AL10" s="2">
+        <f t="shared" si="5"/>
+        <v>6.3279438735140934</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X12" s="2">
+        <v>173.62100000000001</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>182</v>
+      </c>
+      <c r="Z12" s="2">
+        <f>Y12*1.03</f>
+        <v>187.46</v>
+      </c>
+      <c r="AA12" s="2">
+        <f>Z12*1.03</f>
+        <v>193.08380000000002</v>
+      </c>
+      <c r="AB12" s="2">
+        <f>AA12*0.5</f>
+        <v>96.541900000000012</v>
+      </c>
+      <c r="AC12" s="2">
+        <f>AB12*0.1</f>
+        <v>9.6541900000000016</v>
+      </c>
+      <c r="AD12" s="2">
+        <f t="shared" ref="AD12:AL12" si="6">AC12*0.1</f>
+        <v>0.96541900000000025</v>
+      </c>
+      <c r="AE12" s="2">
+        <f t="shared" si="6"/>
+        <v>9.6541900000000028E-2</v>
+      </c>
+      <c r="AF12" s="2">
+        <f t="shared" si="6"/>
+        <v>9.6541900000000035E-3</v>
+      </c>
+      <c r="AG12" s="2">
+        <f t="shared" si="6"/>
+        <v>9.6541900000000035E-4</v>
+      </c>
+      <c r="AH12" s="2">
+        <f t="shared" si="6"/>
+        <v>9.6541900000000045E-5</v>
+      </c>
+      <c r="AI12" s="2">
+        <f t="shared" si="6"/>
+        <v>9.6541900000000059E-6</v>
+      </c>
+      <c r="AJ12" s="2">
+        <f t="shared" si="6"/>
+        <v>9.6541900000000063E-7</v>
+      </c>
+      <c r="AK12" s="2">
+        <f t="shared" si="6"/>
+        <v>9.6541900000000066E-8</v>
+      </c>
+      <c r="AL12" s="2">
+        <f t="shared" si="6"/>
+        <v>9.6541900000000076E-9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2">
+        <v>2668</v>
+      </c>
+      <c r="Z13" s="2">
+        <f>Z15/0.036</f>
+        <v>4041.666666666667</v>
+      </c>
+      <c r="AA13" s="2">
+        <f t="shared" ref="AA13:AC13" si="7">AA15/0.036</f>
+        <v>4850</v>
+      </c>
+      <c r="AB13" s="2">
+        <f t="shared" si="7"/>
+        <v>5335.0000000000009</v>
+      </c>
+      <c r="AC13" s="2">
+        <f t="shared" si="7"/>
+        <v>5868.5000000000009</v>
+      </c>
+      <c r="AD13" s="2">
+        <f t="shared" ref="AD13:AE13" si="8">AD15/0.036</f>
+        <v>6455.3500000000013</v>
+      </c>
+      <c r="AE13" s="2">
+        <f t="shared" si="8"/>
+        <v>7100.8850000000029</v>
+      </c>
+      <c r="AF13" s="2">
+        <f t="shared" ref="AF13:AM13" si="9">AF15/0.036</f>
+        <v>6745.8407500000021</v>
+      </c>
+      <c r="AG13" s="2">
+        <f t="shared" si="9"/>
+        <v>6071.2566750000024</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" si="9"/>
+        <v>5464.1310075000019</v>
+      </c>
+      <c r="AI13" s="2">
+        <f t="shared" si="9"/>
+        <v>4644.511356375001</v>
+      </c>
+      <c r="AJ13" s="2">
+        <f t="shared" si="9"/>
+        <v>3947.8346529187506</v>
+      </c>
+      <c r="AK13" s="2">
+        <f t="shared" si="9"/>
+        <v>3158.2677223350011</v>
+      </c>
+      <c r="AL13" s="2">
+        <f t="shared" si="9"/>
+        <v>2526.6141778680008</v>
+      </c>
+      <c r="AM13" s="2"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X14" s="2">
+        <v>404.01900000000001</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>262.73899999999998</v>
+      </c>
+      <c r="Z14" s="2">
+        <f>Y14*0.9</f>
+        <v>236.46509999999998</v>
+      </c>
+      <c r="AA14" s="2">
+        <f t="shared" ref="AA14:AL14" si="10">Z14*0.9</f>
+        <v>212.81858999999997</v>
+      </c>
+      <c r="AB14" s="2">
+        <f t="shared" si="10"/>
+        <v>191.53673099999997</v>
+      </c>
+      <c r="AC14" s="2">
+        <f t="shared" si="10"/>
+        <v>172.38305789999998</v>
+      </c>
+      <c r="AD14" s="2">
+        <f t="shared" si="10"/>
+        <v>155.14475210999998</v>
+      </c>
+      <c r="AE14" s="2">
+        <f t="shared" si="10"/>
+        <v>139.63027689899999</v>
+      </c>
+      <c r="AF14" s="2">
+        <f t="shared" si="10"/>
+        <v>125.66724920909999</v>
+      </c>
+      <c r="AG14" s="2">
+        <f t="shared" si="10"/>
+        <v>113.10052428819</v>
+      </c>
+      <c r="AH14" s="2">
+        <f t="shared" si="10"/>
+        <v>101.79047185937101</v>
+      </c>
+      <c r="AI14" s="2">
+        <f t="shared" si="10"/>
+        <v>91.611424673433916</v>
+      </c>
+      <c r="AJ14" s="2">
+        <f t="shared" si="10"/>
+        <v>82.45028220609052</v>
+      </c>
+      <c r="AK14" s="2">
+        <f t="shared" si="10"/>
+        <v>74.205253985481477</v>
+      </c>
+      <c r="AL14" s="2">
+        <f t="shared" si="10"/>
+        <v>66.784728586933326</v>
+      </c>
+      <c r="AM14" s="2"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X15" s="2">
+        <v>35.718000000000004</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>97</v>
+      </c>
+      <c r="Z15" s="2">
+        <f>Y15*1.5</f>
+        <v>145.5</v>
+      </c>
+      <c r="AA15" s="2">
+        <f>Z15*1.2</f>
+        <v>174.6</v>
+      </c>
+      <c r="AB15" s="2">
+        <f>AA15*1.1</f>
+        <v>192.06</v>
+      </c>
+      <c r="AC15" s="2">
+        <f>AB15*1.1</f>
+        <v>211.26600000000002</v>
+      </c>
+      <c r="AD15" s="2">
+        <f>AC15*1.1</f>
+        <v>232.39260000000004</v>
+      </c>
+      <c r="AE15" s="2">
+        <f t="shared" ref="AD15:AE15" si="11">AD15*1.1</f>
+        <v>255.63186000000007</v>
+      </c>
+      <c r="AF15" s="2">
+        <f>AE15*0.95</f>
+        <v>242.85026700000006</v>
+      </c>
+      <c r="AG15" s="2">
+        <f>AF15*0.9</f>
+        <v>218.56524030000006</v>
+      </c>
+      <c r="AH15" s="2">
+        <f>AG15*0.9</f>
+        <v>196.70871627000005</v>
+      </c>
+      <c r="AI15" s="2">
+        <f>AH15*0.85</f>
+        <v>167.20240882950003</v>
+      </c>
+      <c r="AJ15" s="2">
+        <f>AI15*0.85</f>
+        <v>142.12204750507502</v>
+      </c>
+      <c r="AK15" s="2">
+        <f>AJ15*0.8</f>
+        <v>113.69763800406002</v>
+      </c>
+      <c r="AL15" s="2">
+        <f>AK15*0.8</f>
+        <v>90.958110403248028</v>
+      </c>
+      <c r="AM15" s="2"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>90</v>
+      </c>
+      <c r="Z16">
+        <f>Y16*1.2</f>
+        <v>108</v>
+      </c>
+      <c r="AA16" s="2">
+        <f>Z16*1.01</f>
+        <v>109.08</v>
+      </c>
+      <c r="AB16" s="2">
+        <f t="shared" ref="AB16:AL16" si="12">AA16*1.01</f>
+        <v>110.1708</v>
+      </c>
+      <c r="AC16" s="2">
+        <f t="shared" si="12"/>
+        <v>111.272508</v>
+      </c>
+      <c r="AD16" s="2">
+        <f t="shared" si="12"/>
+        <v>112.38523308000001</v>
+      </c>
+      <c r="AE16" s="2">
+        <f t="shared" si="12"/>
+        <v>113.50908541080001</v>
+      </c>
+      <c r="AF16" s="2">
+        <f t="shared" si="12"/>
+        <v>114.64417626490801</v>
+      </c>
+      <c r="AG16" s="2">
+        <f t="shared" si="12"/>
+        <v>115.79061802755709</v>
+      </c>
+      <c r="AH16" s="2">
+        <f t="shared" si="12"/>
+        <v>116.94852420783266</v>
+      </c>
+      <c r="AI16" s="2">
+        <f t="shared" si="12"/>
+        <v>118.11800944991099</v>
+      </c>
+      <c r="AJ16" s="2">
+        <f t="shared" si="12"/>
+        <v>119.2991895444101</v>
+      </c>
+      <c r="AK16" s="2">
+        <f t="shared" si="12"/>
+        <v>120.49218143985419</v>
+      </c>
+      <c r="AL16" s="2">
+        <f t="shared" si="12"/>
+        <v>121.69710325425274</v>
+      </c>
+    </row>
+    <row r="17" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X17" s="2">
+        <v>151.15799999999999</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z17" s="2">
+        <f>Y17*0.9</f>
+        <v>65.7</v>
+      </c>
+      <c r="AA17" s="2">
+        <f>Z17*0.8</f>
+        <v>52.56</v>
+      </c>
+      <c r="AB17" s="2">
+        <f>AA17*0.7</f>
+        <v>36.792000000000002</v>
+      </c>
+      <c r="AC17" s="2">
+        <f t="shared" ref="AC17:AL17" si="13">AB17*0.7</f>
+        <v>25.7544</v>
+      </c>
+      <c r="AD17" s="2">
+        <f t="shared" si="13"/>
+        <v>18.028079999999999</v>
+      </c>
+      <c r="AE17" s="2">
+        <f t="shared" si="13"/>
+        <v>12.619655999999999</v>
+      </c>
+      <c r="AF17" s="2">
+        <f t="shared" si="13"/>
+        <v>8.8337591999999994</v>
+      </c>
+      <c r="AG17" s="2">
+        <f t="shared" si="13"/>
+        <v>6.1836314399999992</v>
+      </c>
+      <c r="AH17" s="2">
+        <f t="shared" si="13"/>
+        <v>4.3285420079999994</v>
+      </c>
+      <c r="AI17" s="2">
+        <f t="shared" si="13"/>
+        <v>3.0299794055999993</v>
+      </c>
+      <c r="AJ17" s="2">
+        <f t="shared" si="13"/>
+        <v>2.1209855839199996</v>
+      </c>
+      <c r="AK17" s="2">
+        <f t="shared" si="13"/>
+        <v>1.4846899087439995</v>
+      </c>
+      <c r="AL17" s="2">
+        <f t="shared" si="13"/>
+        <v>1.0392829361207996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="X18" s="2">
+        <v>33.722000000000001</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>55</v>
+      </c>
+      <c r="Z18" s="2">
+        <f>Y18*0.9</f>
+        <v>49.5</v>
+      </c>
+      <c r="AA18" s="2">
+        <f t="shared" ref="AA18:AC18" si="14">Z18*0.9</f>
+        <v>44.550000000000004</v>
+      </c>
+      <c r="AB18" s="2">
+        <f t="shared" si="14"/>
+        <v>40.095000000000006</v>
+      </c>
+      <c r="AC18" s="2">
+        <f t="shared" si="14"/>
+        <v>36.085500000000003</v>
+      </c>
+      <c r="AD18" s="2">
+        <f>AC18*0.1</f>
+        <v>3.6085500000000006</v>
+      </c>
+      <c r="AE18" s="2">
+        <f t="shared" ref="AE18:AL18" si="15">AD18*0.1</f>
+        <v>0.36085500000000009</v>
+      </c>
+      <c r="AF18" s="2">
+        <f t="shared" si="15"/>
+        <v>3.6085500000000013E-2</v>
+      </c>
+      <c r="AG18" s="2">
+        <f t="shared" si="15"/>
+        <v>3.6085500000000016E-3</v>
+      </c>
+      <c r="AH18" s="2">
+        <f t="shared" si="15"/>
+        <v>3.608550000000002E-4</v>
+      </c>
+      <c r="AI18" s="2">
+        <f t="shared" si="15"/>
+        <v>3.6085500000000019E-5</v>
+      </c>
+      <c r="AJ18" s="2">
+        <f t="shared" si="15"/>
+        <v>3.6085500000000021E-6</v>
+      </c>
+      <c r="AK18" s="2">
+        <f t="shared" si="15"/>
+        <v>3.6085500000000025E-7</v>
+      </c>
+      <c r="AL18" s="2">
+        <f t="shared" si="15"/>
+        <v>3.6085500000000029E-8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X19" s="2">
+        <v>36.378</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>43.84</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" ref="Z19:AC19" si="16">Y19*0.9</f>
+        <v>39.456000000000003</v>
+      </c>
+      <c r="AA19" s="2">
+        <f t="shared" si="16"/>
+        <v>35.510400000000004</v>
+      </c>
+      <c r="AB19" s="2">
+        <f t="shared" si="16"/>
+        <v>31.959360000000004</v>
+      </c>
+      <c r="AC19" s="2">
+        <f t="shared" si="16"/>
+        <v>28.763424000000004</v>
+      </c>
+      <c r="AD19" s="2">
+        <f t="shared" ref="AD19:AL19" si="17">AC19*0.1</f>
+        <v>2.8763424000000004</v>
+      </c>
+      <c r="AE19" s="2">
+        <f t="shared" si="17"/>
+        <v>0.28763424000000004</v>
+      </c>
+      <c r="AF19" s="2">
+        <f t="shared" si="17"/>
+        <v>2.8763424000000006E-2</v>
+      </c>
+      <c r="AG19" s="2">
+        <f t="shared" si="17"/>
+        <v>2.8763424000000006E-3</v>
+      </c>
+      <c r="AH19" s="2">
+        <f t="shared" si="17"/>
+        <v>2.8763424000000006E-4</v>
+      </c>
+      <c r="AI19" s="2">
+        <f t="shared" si="17"/>
+        <v>2.8763424000000009E-5</v>
+      </c>
+      <c r="AJ19" s="2">
+        <f t="shared" si="17"/>
+        <v>2.8763424000000012E-6</v>
+      </c>
+      <c r="AK19" s="2">
+        <f t="shared" si="17"/>
+        <v>2.8763424000000012E-7</v>
+      </c>
+      <c r="AL19" s="2">
+        <f t="shared" si="17"/>
+        <v>2.8763424000000014E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="X20" s="2">
+        <v>16.097999999999999</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>40.645000000000003</v>
+      </c>
+      <c r="Z20" s="2">
+        <f>Y20*1.2</f>
+        <v>48.774000000000001</v>
+      </c>
+      <c r="AA20" s="2">
+        <f>Z20*0.99</f>
+        <v>48.286259999999999</v>
+      </c>
+      <c r="AB20" s="2">
+        <f t="shared" ref="AB20:AL20" si="18">AA20*0.99</f>
+        <v>47.803397400000001</v>
+      </c>
+      <c r="AC20" s="2">
+        <f t="shared" si="18"/>
+        <v>47.325363426000003</v>
+      </c>
+      <c r="AD20" s="2">
+        <f t="shared" si="18"/>
+        <v>46.852109791740006</v>
+      </c>
+      <c r="AE20" s="2">
+        <f t="shared" si="18"/>
+        <v>46.383588693822603</v>
+      </c>
+      <c r="AF20" s="2">
+        <f t="shared" si="18"/>
+        <v>45.919752806884375</v>
+      </c>
+      <c r="AG20" s="2">
+        <f t="shared" si="18"/>
+        <v>45.460555278815534</v>
+      </c>
+      <c r="AH20" s="2">
+        <f t="shared" si="18"/>
+        <v>45.005949726027374</v>
+      </c>
+      <c r="AI20" s="2">
+        <f t="shared" si="18"/>
+        <v>44.555890228767097</v>
+      </c>
+      <c r="AJ20" s="2">
+        <f t="shared" si="18"/>
+        <v>44.110331326479425</v>
+      </c>
+      <c r="AK20" s="2">
+        <f t="shared" si="18"/>
+        <v>43.669228013214628</v>
+      </c>
+      <c r="AL20" s="2">
+        <f t="shared" si="18"/>
+        <v>43.232535733082479</v>
+      </c>
+    </row>
+    <row r="21" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="X21" s="2">
+        <v>37.505000000000003</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z21" s="2">
+        <f t="shared" ref="Z21" si="19">Y21*1.2</f>
+        <v>44.4</v>
+      </c>
+      <c r="AA21" s="2">
+        <f t="shared" ref="AA21:AL21" si="20">Z21*0.99</f>
+        <v>43.955999999999996</v>
+      </c>
+      <c r="AB21" s="2">
+        <f t="shared" si="20"/>
+        <v>43.516439999999996</v>
+      </c>
+      <c r="AC21" s="2">
+        <f t="shared" si="20"/>
+        <v>43.081275599999998</v>
+      </c>
+      <c r="AD21" s="2">
+        <f t="shared" si="20"/>
+        <v>42.650462843999996</v>
+      </c>
+      <c r="AE21" s="2">
+        <f t="shared" si="20"/>
+        <v>42.223958215559996</v>
+      </c>
+      <c r="AF21" s="2">
+        <f t="shared" si="20"/>
+        <v>41.801718633404398</v>
+      </c>
+      <c r="AG21" s="2">
+        <f t="shared" si="20"/>
+        <v>41.383701447070351</v>
+      </c>
+      <c r="AH21" s="2">
+        <f t="shared" si="20"/>
+        <v>40.96986443259965</v>
+      </c>
+      <c r="AI21" s="2">
+        <f t="shared" si="20"/>
+        <v>40.56016578827365</v>
+      </c>
+      <c r="AJ21" s="2">
+        <f t="shared" si="20"/>
+        <v>40.154564130390916</v>
+      </c>
+      <c r="AK21" s="2">
+        <f t="shared" si="20"/>
+        <v>39.753018489087005</v>
+      </c>
+      <c r="AL21" s="2">
+        <f t="shared" si="20"/>
+        <v>39.355488304196136</v>
+      </c>
+    </row>
+    <row r="22" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="X22" s="2">
+        <v>13.395</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>24.809000000000001</v>
+      </c>
+      <c r="Z22" s="2">
+        <f>Y22*1.2</f>
+        <v>29.770800000000001</v>
+      </c>
+      <c r="AA22" s="2">
+        <f>Z22*1.2</f>
+        <v>35.724960000000003</v>
+      </c>
+      <c r="AB22" s="2">
+        <f>AA22*1.2</f>
+        <v>42.869952000000005</v>
+      </c>
+      <c r="AC22" s="2">
+        <f>AB22*1.2</f>
+        <v>51.443942400000005</v>
+      </c>
+      <c r="AD22" s="2">
+        <f>AC22*1.01</f>
+        <v>51.958381824000007</v>
+      </c>
+      <c r="AE22" s="2">
+        <f t="shared" ref="AE22:AL22" si="21">AD22*1.01</f>
+        <v>52.477965642240008</v>
+      </c>
+      <c r="AF22" s="2">
+        <f t="shared" si="21"/>
+        <v>53.002745298662411</v>
+      </c>
+      <c r="AG22" s="2">
+        <f t="shared" si="21"/>
+        <v>53.532772751649034</v>
+      </c>
+      <c r="AH22" s="2">
+        <f t="shared" si="21"/>
+        <v>54.068100479165523</v>
+      </c>
+      <c r="AI22" s="2">
+        <f t="shared" si="21"/>
+        <v>54.608781483957181</v>
+      </c>
+      <c r="AJ22" s="2">
+        <f t="shared" si="21"/>
+        <v>55.154869298796754</v>
+      </c>
+      <c r="AK22" s="2">
+        <f t="shared" si="21"/>
+        <v>55.706417991784726</v>
+      </c>
+      <c r="AL22" s="2">
+        <f t="shared" si="21"/>
+        <v>56.26348217170257</v>
+      </c>
+    </row>
+    <row r="23" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="X23" s="2">
+        <v>6.74</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>21.800999999999998</v>
+      </c>
+      <c r="Z23" s="2">
+        <f>Y23*1.2</f>
+        <v>26.161199999999997</v>
+      </c>
+      <c r="AA23" s="2">
+        <f>Z23*1.01</f>
+        <v>26.422811999999997</v>
+      </c>
+      <c r="AB23" s="2">
+        <f t="shared" ref="AB23:AL23" si="22">AA23*1.01</f>
+        <v>26.687040119999995</v>
+      </c>
+      <c r="AC23" s="2">
+        <f t="shared" si="22"/>
+        <v>26.953910521199994</v>
+      </c>
+      <c r="AD23" s="2">
+        <f t="shared" si="22"/>
+        <v>27.223449626411995</v>
+      </c>
+      <c r="AE23" s="2">
+        <f t="shared" si="22"/>
+        <v>27.495684122676114</v>
+      </c>
+      <c r="AF23" s="2">
+        <f t="shared" si="22"/>
+        <v>27.770640963902874</v>
+      </c>
+      <c r="AG23" s="2">
+        <f t="shared" si="22"/>
+        <v>28.048347373541905</v>
+      </c>
+      <c r="AH23" s="2">
+        <f t="shared" si="22"/>
+        <v>28.328830847277324</v>
+      </c>
+      <c r="AI23" s="2">
+        <f t="shared" si="22"/>
+        <v>28.612119155750097</v>
+      </c>
+      <c r="AJ23" s="2">
+        <f t="shared" si="22"/>
+        <v>28.898240347307599</v>
+      </c>
+      <c r="AK23" s="2">
+        <f t="shared" si="22"/>
+        <v>29.187222750780677</v>
+      </c>
+      <c r="AL23" s="2">
+        <f t="shared" si="22"/>
+        <v>29.479094978288483</v>
+      </c>
+    </row>
+    <row r="24" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="X24" s="2">
+        <v>14.227</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z24" s="2">
+        <f t="shared" ref="Z24" si="23">Y24*1.2</f>
+        <v>25.2</v>
+      </c>
+      <c r="AA24" s="2">
+        <f t="shared" ref="AA24:AL24" si="24">Z24*1.01</f>
+        <v>25.451999999999998</v>
+      </c>
+      <c r="AB24" s="2">
+        <f t="shared" si="24"/>
+        <v>25.706519999999998</v>
+      </c>
+      <c r="AC24" s="2">
+        <f t="shared" si="24"/>
+        <v>25.963585199999997</v>
+      </c>
+      <c r="AD24" s="2">
+        <f t="shared" si="24"/>
+        <v>26.223221051999996</v>
+      </c>
+      <c r="AE24" s="2">
+        <f t="shared" si="24"/>
+        <v>26.485453262519997</v>
+      </c>
+      <c r="AF24" s="2">
+        <f t="shared" si="24"/>
+        <v>26.750307795145197</v>
+      </c>
+      <c r="AG24" s="2">
+        <f t="shared" si="24"/>
+        <v>27.01781087309665</v>
+      </c>
+      <c r="AH24" s="2">
+        <f t="shared" si="24"/>
+        <v>27.287988981827617</v>
+      </c>
+      <c r="AI24" s="2">
+        <f t="shared" si="24"/>
+        <v>27.560868871645894</v>
+      </c>
+      <c r="AJ24" s="2">
+        <f t="shared" si="24"/>
+        <v>27.836477560362354</v>
+      </c>
+      <c r="AK24" s="2">
+        <f t="shared" si="24"/>
+        <v>28.114842335965978</v>
+      </c>
+      <c r="AL24" s="2">
+        <f t="shared" si="24"/>
+        <v>28.395990759325638</v>
+      </c>
+    </row>
+    <row r="25" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="X25" s="2">
+        <v>16.741</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z25" s="2">
+        <f>Y25*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="AA25" s="2">
+        <f t="shared" ref="AA25:AE25" si="25">Z25*1.1</f>
+        <v>24.200000000000003</v>
+      </c>
+      <c r="AB25" s="2">
+        <f t="shared" si="25"/>
+        <v>26.620000000000005</v>
+      </c>
+      <c r="AC25" s="2">
+        <f t="shared" si="25"/>
+        <v>29.282000000000007</v>
+      </c>
+      <c r="AD25" s="2">
+        <f t="shared" si="25"/>
+        <v>32.210200000000007</v>
+      </c>
+      <c r="AE25" s="2">
+        <f t="shared" si="25"/>
+        <v>35.43122000000001</v>
+      </c>
+      <c r="AF25" s="2">
+        <f>AE25*1.01</f>
+        <v>35.785532200000013</v>
+      </c>
+      <c r="AG25" s="2">
+        <f t="shared" ref="AG25:AL25" si="26">AF25*1.01</f>
+        <v>36.143387522000012</v>
+      </c>
+      <c r="AH25" s="2">
+        <f t="shared" si="26"/>
+        <v>36.504821397220013</v>
+      </c>
+      <c r="AI25" s="2">
+        <f t="shared" si="26"/>
+        <v>36.869869611192215</v>
+      </c>
+      <c r="AJ25" s="2">
+        <f t="shared" si="26"/>
+        <v>37.238568307304135</v>
+      </c>
+      <c r="AK25" s="2">
+        <f t="shared" si="26"/>
+        <v>37.610953990377176</v>
+      </c>
+      <c r="AL25" s="2">
+        <f t="shared" si="26"/>
+        <v>37.987063530280949</v>
+      </c>
+      <c r="AN25" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="AO25" s="2">
+        <f t="shared" ref="AO25:AO27" si="27">NPV(AN25,$Z$28:$AL$28)</f>
+        <v>28732.681743132147</v>
+      </c>
+    </row>
+    <row r="26" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="X26" s="2">
+        <v>15.481</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z26" s="2">
+        <f>Y26*0.99</f>
+        <v>18.809999999999999</v>
+      </c>
+      <c r="AA26" s="2">
+        <f t="shared" ref="AA26:AL26" si="28">Z26*0.99</f>
+        <v>18.6219</v>
+      </c>
+      <c r="AB26" s="2">
+        <f t="shared" si="28"/>
+        <v>18.435680999999999</v>
+      </c>
+      <c r="AC26" s="2">
+        <f t="shared" si="28"/>
+        <v>18.251324189999998</v>
+      </c>
+      <c r="AD26" s="2">
+        <f t="shared" si="28"/>
+        <v>18.068810948099998</v>
+      </c>
+      <c r="AE26" s="2">
+        <f t="shared" si="28"/>
+        <v>17.888122838618997</v>
+      </c>
+      <c r="AF26" s="2">
+        <f t="shared" si="28"/>
+        <v>17.709241610232809</v>
+      </c>
+      <c r="AG26" s="2">
+        <f t="shared" si="28"/>
+        <v>17.532149194130479</v>
+      </c>
+      <c r="AH26" s="2">
+        <f t="shared" si="28"/>
+        <v>17.356827702189175</v>
+      </c>
+      <c r="AI26" s="2">
+        <f t="shared" si="28"/>
+        <v>17.183259425167282</v>
+      </c>
+      <c r="AJ26" s="2">
+        <f t="shared" si="28"/>
+        <v>17.01142683091561</v>
+      </c>
+      <c r="AK26" s="2">
+        <f t="shared" si="28"/>
+        <v>16.841312562606454</v>
+      </c>
+      <c r="AL26" s="2">
+        <f t="shared" si="28"/>
+        <v>16.672899436980391</v>
+      </c>
+      <c r="AN26" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="AO26" s="2">
+        <f t="shared" si="27"/>
+        <v>27003.974817446797</v>
+      </c>
+    </row>
+    <row r="27" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="X27" s="2">
+        <v>1.248</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z27" s="2">
+        <f>Y27*1.01</f>
+        <v>3.0300000000000002</v>
+      </c>
+      <c r="AA27" s="2">
+        <f t="shared" ref="AA27:AL27" si="29">Z27*1.01</f>
+        <v>3.0603000000000002</v>
+      </c>
+      <c r="AB27" s="2">
+        <f t="shared" si="29"/>
+        <v>3.0909030000000004</v>
+      </c>
+      <c r="AC27" s="2">
+        <f t="shared" si="29"/>
+        <v>3.1218120300000005</v>
+      </c>
+      <c r="AD27" s="2">
+        <f t="shared" si="29"/>
+        <v>3.1530301503000007</v>
+      </c>
+      <c r="AE27" s="2">
+        <f t="shared" si="29"/>
+        <v>3.1845604518030006</v>
+      </c>
+      <c r="AF27" s="2">
+        <f t="shared" si="29"/>
+        <v>3.2164060563210306</v>
+      </c>
+      <c r="AG27" s="2">
+        <f t="shared" si="29"/>
+        <v>3.2485701168842409</v>
+      </c>
+      <c r="AH27" s="2">
+        <f t="shared" si="29"/>
+        <v>3.2810558180530833</v>
+      </c>
+      <c r="AI27" s="2">
+        <f t="shared" si="29"/>
+        <v>3.313866376233614</v>
+      </c>
+      <c r="AJ27" s="2">
+        <f t="shared" si="29"/>
+        <v>3.3470050399959503</v>
+      </c>
+      <c r="AK27" s="2">
+        <f t="shared" si="29"/>
+        <v>3.38047509039591</v>
+      </c>
+      <c r="AL27" s="2">
+        <f t="shared" si="29"/>
+        <v>3.4142798412998689</v>
+      </c>
+      <c r="AN27" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="AO27" s="2">
+        <f t="shared" si="27"/>
+        <v>25425.443574130655</v>
+      </c>
+    </row>
+    <row r="28" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="X28" s="2">
+        <f>X4+X6+X8+X10+X12+SUM(X14:X27)</f>
+        <v>2538.3540000000003</v>
+      </c>
+      <c r="Y28" s="2">
+        <f>Y4+Y6+Y8+Y10+Y12+SUM(Y14:Y27)</f>
+        <v>2671.8339999999998</v>
+      </c>
+      <c r="Z28" s="2">
+        <f t="shared" ref="Z28:AL28" si="30">Z4+Z6+Z8+Z10+Z12+SUM(Z14:Z27)</f>
+        <v>2723.8471000000004</v>
+      </c>
+      <c r="AA28" s="2">
+        <f t="shared" si="30"/>
+        <v>2720.2682220000002</v>
+      </c>
+      <c r="AB28" s="2">
+        <f t="shared" si="30"/>
+        <v>2610.7916365199999</v>
+      </c>
+      <c r="AC28" s="2">
+        <f t="shared" si="30"/>
+        <v>2527.6974243872</v>
+      </c>
+      <c r="AD28" s="2">
+        <f t="shared" si="30"/>
+        <v>2476.4661862577523</v>
+      </c>
+      <c r="AE28" s="2">
+        <f t="shared" si="30"/>
+        <v>2497.3533279175526</v>
+      </c>
+      <c r="AF28" s="2">
+        <f t="shared" si="30"/>
+        <v>2493.7657830254784</v>
+      </c>
+      <c r="AG28" s="2">
+        <f t="shared" si="30"/>
+        <v>2486.92712409667</v>
+      </c>
+      <c r="AH28" s="2">
+        <f t="shared" si="30"/>
+        <v>2386.409618550611</v>
+      </c>
+      <c r="AI28" s="2">
+        <f t="shared" si="30"/>
+        <v>2335.5528303766646</v>
+      </c>
+      <c r="AJ28" s="2">
+        <f t="shared" si="30"/>
+        <v>2320.8197407762073</v>
+      </c>
+      <c r="AK28" s="2">
+        <f t="shared" si="30"/>
+        <v>2113.5094978972379</v>
+      </c>
+      <c r="AL28" s="2">
+        <f t="shared" si="30"/>
+        <v>935.94264487275291</v>
+      </c>
+      <c r="AN28" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="AO28" s="2">
+        <f>NPV(AN28,$Z$28:$AL$28)</f>
+        <v>23981.425369581204</v>
+      </c>
+    </row>
+    <row r="29" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="X29" s="2">
+        <v>70.188000000000002</v>
+      </c>
+      <c r="Y29" s="2">
+        <f>559.623</f>
+        <v>559.62300000000005</v>
+      </c>
+      <c r="AN29" s="18">
+        <f>AN28+1%</f>
+        <v>0.05</v>
+      </c>
+      <c r="AO29" s="2">
+        <f t="shared" ref="AO29:AO35" si="31">NPV(AN29,$Z$28:$AL$28)</f>
+        <v>22658.103509842338</v>
+      </c>
+    </row>
+    <row r="30" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="X30" s="2">
+        <f>X28+X29</f>
+        <v>2608.5420000000004</v>
+      </c>
+      <c r="Y30" s="2">
+        <f>Y28+Y29</f>
+        <v>3231.4569999999999</v>
+      </c>
+      <c r="AN30" s="18">
+        <f t="shared" ref="AN30:AN35" si="32">AN29+1%</f>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="AO30" s="2">
+        <f t="shared" si="31"/>
+        <v>21443.26837156502</v>
+      </c>
+    </row>
+    <row r="31" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AN31" s="18">
+        <f t="shared" si="32"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO31" s="2">
+        <f t="shared" si="31"/>
+        <v>20326.111905131995</v>
+      </c>
+    </row>
+    <row r="32" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4">
+        <v>505.83199999999999</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4">
+        <v>551.68200000000002</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="W32" s="2">
+        <v>1959.9749999999999</v>
+      </c>
+      <c r="X32" s="2">
+        <v>2065.0830000000001</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>2125.096</v>
+      </c>
+      <c r="AN32" s="18">
+        <f t="shared" si="32"/>
+        <v>0.08</v>
+      </c>
+      <c r="AO32" s="2">
+        <f t="shared" si="31"/>
+        <v>19297.050536907314</v>
+      </c>
+    </row>
+    <row r="33" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4">
+        <v>63.405999999999999</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4">
+        <v>1.073</v>
+      </c>
+      <c r="N33" s="4"/>
+      <c r="W33" s="2">
+        <v>143.38200000000001</v>
+      </c>
+      <c r="X33" s="2">
+        <v>171.24799999999999</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>37.484000000000002</v>
+      </c>
+      <c r="AN33" s="18">
+        <f t="shared" si="32"/>
+        <v>0.09</v>
+      </c>
+      <c r="AO33" s="2">
+        <f t="shared" si="31"/>
+        <v>18347.572275962833</v>
+      </c>
+    </row>
+    <row r="34" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4">
+        <v>16.535</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4">
+        <v>20.707999999999998</v>
+      </c>
+      <c r="N34" s="4"/>
+      <c r="W34" s="2">
+        <v>18.995999999999999</v>
+      </c>
+      <c r="X34" s="2">
+        <v>53.131999999999998</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>74.635000000000005</v>
+      </c>
+      <c r="AN34" s="18">
+        <f t="shared" si="32"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="AO34" s="2">
+        <f t="shared" si="31"/>
+        <v>17470.10448759262</v>
+      </c>
+    </row>
+    <row r="35" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6">
+        <f>SUM(I32:I34)</f>
+        <v>585.77299999999991</v>
+      </c>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6">
+        <f>SUM(M32:M34)</f>
+        <v>573.46299999999997</v>
+      </c>
+      <c r="N35" s="6"/>
+      <c r="W35" s="5">
+        <f>SUM(W32:W34)</f>
+        <v>2122.3530000000001</v>
+      </c>
+      <c r="X35" s="5">
+        <f>SUM(X32:X34)</f>
+        <v>2289.4630000000002</v>
+      </c>
+      <c r="Y35" s="5">
+        <f>SUM(Y32:Y34)</f>
+        <v>2237.2150000000001</v>
+      </c>
+      <c r="AN35" s="18">
+        <f t="shared" si="32"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="AO35" s="2">
+        <f t="shared" si="31"/>
+        <v>16657.899344433183</v>
+      </c>
+    </row>
+    <row r="36" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4">
+        <v>137.83699999999999</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4">
+        <v>305.06099999999998</v>
+      </c>
+      <c r="N36" s="4"/>
+      <c r="W36" s="2">
+        <v>230.839</v>
+      </c>
+      <c r="X36" s="2">
+        <v>452.84199999999998</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>904.24400000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4">
         <v>25.5</v>
       </c>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+      <c r="N37" s="4"/>
+      <c r="W37" s="2">
+        <v>26.289000000000001</v>
+      </c>
+      <c r="X37" s="2">
+        <v>200.084</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>177.10599999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4">
         <v>48.588000000000001</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4">
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4">
         <v>50.692</v>
       </c>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+      <c r="N38" s="4"/>
+      <c r="W38" s="2">
+        <v>181.715</v>
+      </c>
+      <c r="X38" s="2">
+        <v>182.82599999999999</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>227.303</v>
+      </c>
+    </row>
+    <row r="39" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4">
-        <f>SUM(I7:I9)</f>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4">
+        <f>SUM(I36:I38)</f>
         <v>276.92500000000001</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4">
-        <f>SUM(M7:M9)</f>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4">
+        <f>SUM(M36:M38)</f>
         <v>381.25299999999999</v>
       </c>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+      <c r="N39" s="4"/>
+      <c r="W39" s="2">
+        <f>W36+W37+W38</f>
+        <v>438.84299999999996</v>
+      </c>
+      <c r="X39" s="2">
+        <f>X36+X37+X38</f>
+        <v>835.75199999999995</v>
+      </c>
+      <c r="Y39" s="2">
+        <f>Y36+Y37+Y38</f>
+        <v>1308.6529999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4">
-        <f>I6-I10</f>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4">
+        <f>I35-I39</f>
         <v>308.8479999999999</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4">
-        <f>M6-M10</f>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4">
+        <f>M35-M39</f>
         <v>192.20999999999998</v>
       </c>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+      <c r="N40" s="4"/>
+      <c r="W40" s="2">
+        <f>W35-W39</f>
+        <v>1683.5100000000002</v>
+      </c>
+      <c r="X40" s="2">
+        <f>X35-X39</f>
+        <v>1453.7110000000002</v>
+      </c>
+      <c r="Y40" s="2">
+        <f>Y35-Y39</f>
+        <v>928.56200000000035</v>
+      </c>
+    </row>
+    <row r="41" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4">
         <f>2.749-44.327+12.261-0.793</f>
         <v>-30.109999999999996</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4">
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4">
         <f>-3.251-46.977+14.034-10.798</f>
         <v>-46.991999999999997</v>
       </c>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+      <c r="N41" s="4"/>
+      <c r="W41" s="2">
+        <v>-157.059</v>
+      </c>
+      <c r="X41" s="2">
+        <v>-166.142</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>-187.96100000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4">
-        <f>+I11+I12</f>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4">
+        <f>+I40+I41</f>
         <v>278.73799999999989</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4">
-        <f>+M11+M12</f>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4">
+        <f>+M40+M41</f>
         <v>145.21799999999999</v>
       </c>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+      <c r="N42" s="4"/>
+      <c r="W42" s="2">
+        <f>W40+W41</f>
+        <v>1526.4510000000002</v>
+      </c>
+      <c r="X42" s="2">
+        <f>X40+X41</f>
+        <v>1287.5690000000002</v>
+      </c>
+      <c r="Y42" s="2">
+        <f>Y40+Y41</f>
+        <v>740.60100000000034</v>
+      </c>
+    </row>
+    <row r="43" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4">
         <v>119.867</v>
       </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4">
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4">
         <v>77.763000000000005</v>
       </c>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="N43" s="4"/>
+      <c r="X43" s="2">
+        <v>187.232</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>621.47299999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4">
-        <f>+I13-I14</f>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4">
+        <f>+I42-I43</f>
         <v>158.87099999999987</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4">
-        <f>+M13-M14</f>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4">
+        <f>+M42-M43</f>
         <v>67.454999999999984</v>
       </c>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
+      <c r="N44" s="4"/>
+      <c r="W44" s="2">
+        <f>W42-W43</f>
+        <v>1526.4510000000002</v>
+      </c>
+      <c r="X44" s="2">
+        <f>X42-X43</f>
+        <v>1100.3370000000002</v>
+      </c>
+      <c r="Y44" s="2">
+        <f>Y42-Y43</f>
+        <v>119.12800000000038</v>
+      </c>
+    </row>
+    <row r="45" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="7">
-        <f>+I15/I17</f>
+      <c r="I45" s="7">
+        <f>+I44/I46</f>
         <v>0.26165646091565165</v>
       </c>
-      <c r="M16" s="7">
-        <f>+M15/M17</f>
+      <c r="M45" s="7">
+        <f>+M44/M46</f>
         <v>0.11108714053746049</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
+      <c r="X45" s="1">
+        <f>X44/X46</f>
+        <v>1.812220838768331</v>
+      </c>
+      <c r="Y45" s="1">
+        <f>Y44/Y46</f>
+        <v>0.19618460403409677</v>
+      </c>
+    </row>
+    <row r="46" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I46" s="4">
         <v>607.17399999999998</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M46" s="4">
         <v>607.226</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+      <c r="W46" s="2"/>
+      <c r="X46" s="2">
+        <v>607.17600000000004</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>607.22400000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="X48" s="2">
+        <f>X30</f>
+        <v>2608.5420000000004</v>
+      </c>
+      <c r="Y48" s="2">
+        <f>Y30</f>
+        <v>3231.4569999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="X49" s="2">
+        <v>479.60399999999998</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>441.96300000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="X50" s="2">
+        <f>X48-X49</f>
+        <v>2128.9380000000006</v>
+      </c>
+      <c r="Y50" s="2">
+        <f>Y48-Y49</f>
+        <v>2789.4939999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X51" s="2">
+        <v>184.511</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>222.96899999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="X52" s="2">
+        <f>X50-X51</f>
+        <v>1944.4270000000006</v>
+      </c>
+      <c r="Y52" s="2">
+        <f>Y50-Y51</f>
+        <v>2566.5249999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="X53" s="2">
+        <f>6.876+193.208</f>
+        <v>200.084</v>
+      </c>
+      <c r="Y53" s="2">
+        <f>2.106+175</f>
+        <v>177.10599999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="X54" s="2">
+        <v>127.295</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>145.15700000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="X55" s="2">
+        <f>34.855-7.339+16.093</f>
+        <v>43.608999999999995</v>
+      </c>
+      <c r="Y55" s="2">
+        <f>9.896-1.059</f>
+        <v>8.8370000000000015</v>
+      </c>
+    </row>
+    <row r="56" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4">
-        <f>1527.579-H20-G20</f>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4">
+        <f>1527.579-H56-G56</f>
         <v>1527.579</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4">
-        <f>1574.049-L20-K20</f>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4">
+        <f>1574.049-L56-K56</f>
         <v>1574.049</v>
       </c>
-      <c r="N20" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="X56" s="2">
+        <f>X52-X53-X54-X55</f>
+        <v>1573.4390000000005</v>
+      </c>
+      <c r="Y56" s="2">
+        <f>Y52-Y53-Y54-Y55</f>
+        <v>2235.4249999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="X57" s="2">
+        <v>607.17600000000004</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>607.22400000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="X58" s="1">
+        <f>X56/X57</f>
+        <v>2.5914051280024251</v>
+      </c>
+      <c r="Y58" s="1">
+        <f>Y56/Y57</f>
+        <v>3.6813844643821714</v>
+      </c>
+    </row>
+    <row r="60" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y60" s="2">
+        <f>1710.751+24.421+1.3+112.348+226.3+397.175</f>
+        <v>2472.2950000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y61" s="2">
+        <f>691.319+13493.106</f>
+        <v>14184.424999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y62" s="2">
+        <f>16.83+19.767</f>
+        <v>36.596999999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y63" s="2">
+        <f>90.52+29.629</f>
+        <v>120.149</v>
+      </c>
+    </row>
+    <row r="64" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y64" s="2">
+        <f>SUM(Y60:Y63)</f>
+        <v>16813.466000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y66" s="2">
+        <f>94.803</f>
+        <v>94.802999999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>7.9059999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y68" s="2">
+        <v>54.161999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y69" s="2">
+        <f>997.512+6118.81</f>
+        <v>7116.3220000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y70" s="2">
+        <f>2.5+12.4</f>
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y71" s="2">
+        <f>SUM(Y66:Y70)</f>
+        <v>7288.0929999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W74" s="2">
+        <v>2034.6289999999999</v>
+      </c>
+      <c r="X74" s="2">
+        <v>2017.5360000000001</v>
+      </c>
+      <c r="Y74" s="2">
+        <v>2143.98</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="W75" s="2">
+        <v>2182.2460000000001</v>
+      </c>
+      <c r="X75" s="2">
+        <v>2191.502</v>
+      </c>
+      <c r="Y75" s="2">
+        <v>1741.64</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="W76" s="2">
+        <v>543.952</v>
+      </c>
+      <c r="X76" s="2">
+        <v>479.60399999999998</v>
+      </c>
+      <c r="Y76" s="2">
+        <v>441.96300000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="W77" s="2">
+        <v>112.49</v>
+      </c>
+      <c r="X77" s="2">
+        <v>285.18400000000003</v>
+      </c>
+      <c r="Y77" s="2">
+        <v>333.322</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RPRX.xlsx
+++ b/RPRX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC85943-B61F-4864-BF4A-24240F9A22A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB7C7F0-6DEA-488A-8E71-DF0913C347F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30165" yWindow="915" windowWidth="27885" windowHeight="20745" xr2:uid="{94D9BD71-8B15-4AF3-9192-B3E60893D3C5}"/>
+    <workbookView xWindow="-26700" yWindow="540" windowWidth="26490" windowHeight="19650" activeTab="1" xr2:uid="{94D9BD71-8B15-4AF3-9192-B3E60893D3C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="132">
   <si>
     <t>Price</t>
   </si>
@@ -421,6 +421,18 @@
   </si>
   <si>
     <t>Dividends</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -428,9 +440,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -449,6 +461,13 @@
       <u/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -556,10 +575,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -577,7 +597,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -585,10 +604,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -618,8 +638,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>4699</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>33213</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>59872</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -634,8 +654,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8888015" y="45119"/>
-          <a:ext cx="0" cy="8329989"/>
+          <a:off x="8958199" y="45119"/>
+          <a:ext cx="0" cy="13077610"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -660,13 +680,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>30079</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>50132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>30079</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>103909</xdr:rowOff>
@@ -712,9 +732,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -752,7 +772,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -858,7 +878,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1000,7 +1020,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1010,9 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84BD893-C181-4171-97CF-57470801B437}">
   <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1022,202 +1040,179 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="15"/>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>35.67</v>
+        <v>29.37</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
+      <c r="G3" s="9"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <f>443.16603+164.057651</f>
-        <v>607.22368099999994</v>
+        <f>448.131556+145.327592</f>
+        <v>593.45914800000003</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="9"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>21659.668701269999</v>
+        <v>17429.895176760001</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
+      <c r="G5" s="9"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <v>2472</v>
+        <f>1764.644+178.017+352.099+629.9</f>
+        <v>2924.6600000000003</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
+      <c r="F6" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="9"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="2">
-        <v>7116</v>
+        <v>7602.0190000000002</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="9"/>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>26303.668701269999</v>
+        <v>22107.254176760001</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
+      <c r="D8" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="17" t="s">
+      <c r="F9" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
+      <c r="D10" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="17" t="s">
+      <c r="F11" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="17" t="s">
+      <c r="F12" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="9"/>
       <c r="J12" t="s">
         <v>101</v>
       </c>
@@ -1226,15 +1221,13 @@
       <c r="B13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="9"/>
       <c r="J13" t="s">
         <v>100</v>
       </c>
@@ -1243,25 +1236,24 @@
       <c r="B14" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="17" t="s">
+      <c r="F14" t="s">
         <v>98</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
@@ -1276,13 +1268,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1713F4E8-A8CE-4B18-916E-E9E556347FDE}">
-  <dimension ref="A1:AO77"/>
+  <dimension ref="A1:AS77"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AH16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AO34" sqref="AO34"/>
+      <selection pane="bottomRight" activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1290,15 +1282,15 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="14" width="9.140625" style="3"/>
-    <col min="41" max="41" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1347,77 +1339,89 @@
       <c r="R2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U2">
+      <c r="S2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y2">
         <v>2018</v>
       </c>
-      <c r="V2">
+      <c r="Z2">
         <v>2019</v>
       </c>
-      <c r="W2">
+      <c r="AA2">
         <v>2020</v>
       </c>
-      <c r="X2">
-        <f>W2+1</f>
+      <c r="AB2">
+        <f>AA2+1</f>
         <v>2021</v>
       </c>
-      <c r="Y2">
-        <f t="shared" ref="Y2:AL2" si="0">X2+1</f>
+      <c r="AC2">
+        <f t="shared" ref="AC2:AP2" si="0">AB2+1</f>
         <v>2022</v>
       </c>
-      <c r="Z2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AA2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AB2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AD2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AE2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AF2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AG2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AH2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AI2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AJ2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AK2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AL2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
@@ -1437,11 +1441,15 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-      <c r="Y3" s="2">
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="AC3" s="2">
         <v>8931</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -1457,66 +1465,72 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="X4" s="2">
+      <c r="P4" s="2">
+        <v>208.33799999999999</v>
+      </c>
+      <c r="T4" s="2">
+        <v>195.97800000000001</v>
+      </c>
+      <c r="AB4" s="2">
         <v>702.14</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="AC4" s="2">
         <v>811</v>
       </c>
-      <c r="Z4" s="2">
-        <f>Y4*1.05</f>
+      <c r="AD4" s="2">
+        <f>AC4*1.05</f>
         <v>851.55000000000007</v>
       </c>
-      <c r="AA4" s="2">
-        <f t="shared" ref="AA4:AJ4" si="1">Z4*1.05</f>
+      <c r="AE4" s="2">
+        <f t="shared" ref="AE4:AN4" si="1">AD4*1.05</f>
         <v>894.12750000000005</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AF4" s="2">
         <f t="shared" si="1"/>
         <v>938.83387500000015</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AG4" s="2">
         <f t="shared" si="1"/>
         <v>985.77556875000016</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AH4" s="2">
         <f t="shared" si="1"/>
         <v>1035.0643471875003</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AI4" s="2">
         <f t="shared" si="1"/>
         <v>1086.8175645468752</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AJ4" s="2">
         <f t="shared" si="1"/>
         <v>1141.1584427742191</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AK4" s="2">
         <f t="shared" si="1"/>
         <v>1198.2163649129302</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AL4" s="2">
         <f t="shared" si="1"/>
         <v>1258.1271831585768</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AM4" s="2">
         <f t="shared" si="1"/>
         <v>1321.0335423165056</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AN4" s="2">
         <f t="shared" si="1"/>
         <v>1387.0852194323311</v>
       </c>
-      <c r="AK4" s="2">
-        <f>AJ4*0.9</f>
+      <c r="AO4" s="2">
+        <f>AN4*0.9</f>
         <v>1248.376697489098</v>
       </c>
-      <c r="AL4" s="2">
-        <f>AK4*0.1</f>
+      <c r="AP4" s="2">
+        <f>AO4*0.1</f>
         <v>124.8376697489098</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
@@ -1532,11 +1546,11 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="Y5" s="2">
+      <c r="AC5" s="2">
         <v>2028</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
@@ -1552,66 +1566,72 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="X6" s="2">
+      <c r="P6" s="2">
+        <v>43.795999999999999</v>
+      </c>
+      <c r="T6" s="2">
+        <v>30.646999999999998</v>
+      </c>
+      <c r="AB6" s="2">
         <v>369.149</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AC6" s="2">
         <v>370</v>
       </c>
-      <c r="Z6" s="2">
-        <f>Y6*0.95</f>
+      <c r="AD6" s="2">
+        <f>AC6*0.95</f>
         <v>351.5</v>
       </c>
-      <c r="AA6" s="2">
-        <f t="shared" ref="AA6:AL6" si="2">Z6*0.95</f>
+      <c r="AE6" s="2">
+        <f t="shared" ref="AE6:AP6" si="2">AD6*0.95</f>
         <v>333.92500000000001</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AF6" s="2">
         <f t="shared" si="2"/>
         <v>317.22874999999999</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AG6" s="2">
         <f t="shared" si="2"/>
         <v>301.36731249999997</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AH6" s="2">
         <f t="shared" si="2"/>
         <v>286.29894687499996</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AI6" s="2">
         <f t="shared" si="2"/>
         <v>271.98399953124994</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AJ6" s="2">
         <f t="shared" si="2"/>
         <v>258.38479955468745</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AK6" s="2">
         <f t="shared" si="2"/>
         <v>245.46555957695307</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AL6" s="2">
         <f t="shared" si="2"/>
         <v>233.19228159810541</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AM6" s="2">
         <f t="shared" si="2"/>
         <v>221.53266751820013</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AN6" s="2">
         <f t="shared" si="2"/>
         <v>210.45603414229012</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AO6" s="2">
         <f t="shared" si="2"/>
         <v>199.9332324351756</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AP6" s="2">
         <f t="shared" si="2"/>
         <v>189.93657081341681</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
@@ -1627,11 +1647,11 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="Y7" s="2">
+      <c r="AC7" s="2">
         <v>5820</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1647,1300 +1667,1382 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="X8" s="2">
+      <c r="P8" s="2">
+        <v>41.725000000000001</v>
+      </c>
+      <c r="T8" s="2">
+        <v>33.170999999999999</v>
+      </c>
+      <c r="AB8" s="2">
         <v>352.911</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AC8" s="2">
         <v>313</v>
       </c>
-      <c r="Z8" s="2">
-        <f>Y8*0.9</f>
+      <c r="AD8" s="2">
+        <f>AC8*0.9</f>
         <v>281.7</v>
       </c>
-      <c r="AA8" s="2">
-        <f t="shared" ref="AA8:AL8" si="3">Z8*0.9</f>
+      <c r="AE8" s="2">
+        <f t="shared" ref="AE8:AP8" si="3">AD8*0.9</f>
         <v>253.53</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AF8" s="2">
         <f t="shared" si="3"/>
         <v>228.17699999999999</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AG8" s="2">
         <f t="shared" si="3"/>
         <v>205.35929999999999</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AH8" s="2">
         <f t="shared" si="3"/>
         <v>184.82336999999998</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AI8" s="2">
         <f t="shared" si="3"/>
         <v>166.34103299999998</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AJ8" s="2">
         <f t="shared" si="3"/>
         <v>149.70692969999999</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AK8" s="2">
         <f t="shared" si="3"/>
         <v>134.73623673</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AL8" s="2">
         <f t="shared" si="3"/>
         <v>121.26261305700001</v>
       </c>
-      <c r="AI8" s="2">
+      <c r="AM8" s="2">
         <f t="shared" si="3"/>
         <v>109.13635175130001</v>
       </c>
-      <c r="AJ8" s="2">
+      <c r="AN8" s="2">
         <f t="shared" si="3"/>
         <v>98.222716576170015</v>
       </c>
-      <c r="AK8" s="2">
+      <c r="AO8" s="2">
         <f t="shared" si="3"/>
         <v>88.400444918553021</v>
       </c>
-      <c r="AL8" s="2">
+      <c r="AP8" s="2">
         <f t="shared" si="3"/>
         <v>79.560400426697726</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2">
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2">
         <v>4817</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="X10" s="2">
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="AB10" s="2">
         <v>158.10300000000001</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="AC10" s="2">
         <v>187</v>
       </c>
-      <c r="Z10" s="2">
-        <f>Y10*1.01</f>
+      <c r="AD10" s="2">
+        <f>AC10*1.01</f>
         <v>188.87</v>
       </c>
-      <c r="AA10" s="2">
-        <f t="shared" ref="AA10:AG10" si="4">Z10*1.01</f>
+      <c r="AE10" s="2">
+        <f t="shared" ref="AE10:AK10" si="4">AD10*1.01</f>
         <v>190.7587</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AF10" s="2">
         <f t="shared" si="4"/>
         <v>192.66628700000001</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AG10" s="2">
         <f t="shared" si="4"/>
         <v>194.59294987000001</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AH10" s="2">
         <f t="shared" si="4"/>
         <v>196.53887936870001</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AI10" s="2">
         <f t="shared" si="4"/>
         <v>198.50426816238701</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AJ10" s="2">
         <f t="shared" si="4"/>
         <v>200.48931084401087</v>
       </c>
-      <c r="AG10" s="2">
+      <c r="AK10" s="2">
         <f t="shared" si="4"/>
         <v>202.49420395245099</v>
       </c>
-      <c r="AH10" s="2">
-        <f>AG10*0.5</f>
+      <c r="AL10" s="2">
+        <f>AK10*0.5</f>
         <v>101.24710197622549</v>
       </c>
-      <c r="AI10" s="2">
-        <f t="shared" ref="AI10:AL10" si="5">AH10*0.5</f>
+      <c r="AM10" s="2">
+        <f t="shared" ref="AM10:AP10" si="5">AL10*0.5</f>
         <v>50.623550988112747</v>
       </c>
-      <c r="AJ10" s="2">
+      <c r="AN10" s="2">
         <f t="shared" si="5"/>
         <v>25.311775494056374</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="AO10" s="2">
         <f t="shared" si="5"/>
         <v>12.655887747028187</v>
       </c>
-      <c r="AL10" s="2">
+      <c r="AP10" s="2">
         <f t="shared" si="5"/>
         <v>6.3279438735140934</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2">
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2">
         <v>2088</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="X12" s="2">
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="AB12" s="2">
         <v>173.62100000000001</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="AC12" s="2">
         <v>182</v>
       </c>
-      <c r="Z12" s="2">
-        <f>Y12*1.03</f>
+      <c r="AD12" s="2">
+        <f>AC12*1.03</f>
         <v>187.46</v>
       </c>
-      <c r="AA12" s="2">
-        <f>Z12*1.03</f>
+      <c r="AE12" s="2">
+        <f>AD12*1.03</f>
         <v>193.08380000000002</v>
       </c>
-      <c r="AB12" s="2">
-        <f>AA12*0.5</f>
+      <c r="AF12" s="2">
+        <f>AE12*0.5</f>
         <v>96.541900000000012</v>
       </c>
-      <c r="AC12" s="2">
-        <f>AB12*0.1</f>
+      <c r="AG12" s="2">
+        <f>AF12*0.1</f>
         <v>9.6541900000000016</v>
       </c>
-      <c r="AD12" s="2">
-        <f t="shared" ref="AD12:AL12" si="6">AC12*0.1</f>
+      <c r="AH12" s="2">
+        <f t="shared" ref="AH12:AP12" si="6">AG12*0.1</f>
         <v>0.96541900000000025</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AI12" s="2">
         <f t="shared" si="6"/>
         <v>9.6541900000000028E-2</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AJ12" s="2">
         <f t="shared" si="6"/>
         <v>9.6541900000000035E-3</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AK12" s="2">
         <f t="shared" si="6"/>
         <v>9.6541900000000035E-4</v>
       </c>
-      <c r="AH12" s="2">
+      <c r="AL12" s="2">
         <f t="shared" si="6"/>
         <v>9.6541900000000045E-5</v>
       </c>
-      <c r="AI12" s="2">
+      <c r="AM12" s="2">
         <f t="shared" si="6"/>
         <v>9.6541900000000059E-6</v>
       </c>
-      <c r="AJ12" s="2">
+      <c r="AN12" s="2">
         <f t="shared" si="6"/>
         <v>9.6541900000000063E-7</v>
       </c>
-      <c r="AK12" s="2">
+      <c r="AO12" s="2">
         <f t="shared" si="6"/>
         <v>9.6541900000000066E-8</v>
       </c>
-      <c r="AL12" s="2">
+      <c r="AP12" s="2">
         <f t="shared" si="6"/>
         <v>9.6541900000000076E-9</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2">
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2">
         <v>2668</v>
       </c>
-      <c r="Z13" s="2">
-        <f>Z15/0.036</f>
+      <c r="AD13" s="2">
+        <f>AD15/0.036</f>
         <v>4041.666666666667</v>
       </c>
-      <c r="AA13" s="2">
-        <f t="shared" ref="AA13:AC13" si="7">AA15/0.036</f>
+      <c r="AE13" s="2">
+        <f t="shared" ref="AE13:AG13" si="7">AE15/0.036</f>
         <v>4850</v>
       </c>
-      <c r="AB13" s="2">
+      <c r="AF13" s="2">
         <f t="shared" si="7"/>
         <v>5335.0000000000009</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AG13" s="2">
         <f t="shared" si="7"/>
         <v>5868.5000000000009</v>
       </c>
-      <c r="AD13" s="2">
-        <f t="shared" ref="AD13:AE13" si="8">AD15/0.036</f>
+      <c r="AH13" s="2">
+        <f t="shared" ref="AH13:AI13" si="8">AH15/0.036</f>
         <v>6455.3500000000013</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="AI13" s="2">
         <f t="shared" si="8"/>
         <v>7100.8850000000029</v>
       </c>
-      <c r="AF13" s="2">
-        <f t="shared" ref="AF13:AM13" si="9">AF15/0.036</f>
+      <c r="AJ13" s="2">
+        <f t="shared" ref="AJ13:AP13" si="9">AJ15/0.036</f>
         <v>6745.8407500000021</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="AK13" s="2">
         <f t="shared" si="9"/>
         <v>6071.2566750000024</v>
       </c>
-      <c r="AH13" s="2">
+      <c r="AL13" s="2">
         <f t="shared" si="9"/>
         <v>5464.1310075000019</v>
       </c>
-      <c r="AI13" s="2">
+      <c r="AM13" s="2">
         <f t="shared" si="9"/>
         <v>4644.511356375001</v>
       </c>
-      <c r="AJ13" s="2">
+      <c r="AN13" s="2">
         <f t="shared" si="9"/>
         <v>3947.8346529187506</v>
       </c>
-      <c r="AK13" s="2">
+      <c r="AO13" s="2">
         <f t="shared" si="9"/>
         <v>3158.2677223350011</v>
       </c>
-      <c r="AL13" s="2">
+      <c r="AP13" s="2">
         <f t="shared" si="9"/>
         <v>2526.6141778680008</v>
       </c>
-      <c r="AM13" s="2"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AQ13" s="2"/>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="X14" s="2">
+      <c r="P14" s="2">
+        <v>116.404</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2">
+        <v>123.92400000000001</v>
+      </c>
+      <c r="AB14" s="2">
         <v>404.01900000000001</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="AC14" s="2">
         <v>262.73899999999998</v>
       </c>
-      <c r="Z14" s="2">
-        <f>Y14*0.9</f>
+      <c r="AD14" s="2">
+        <f>AC14*0.9</f>
         <v>236.46509999999998</v>
       </c>
-      <c r="AA14" s="2">
-        <f t="shared" ref="AA14:AL14" si="10">Z14*0.9</f>
+      <c r="AE14" s="2">
+        <f t="shared" ref="AE14:AP14" si="10">AD14*0.9</f>
         <v>212.81858999999997</v>
       </c>
-      <c r="AB14" s="2">
+      <c r="AF14" s="2">
         <f t="shared" si="10"/>
         <v>191.53673099999997</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AG14" s="2">
         <f t="shared" si="10"/>
         <v>172.38305789999998</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AH14" s="2">
         <f t="shared" si="10"/>
         <v>155.14475210999998</v>
       </c>
-      <c r="AE14" s="2">
+      <c r="AI14" s="2">
         <f t="shared" si="10"/>
         <v>139.63027689899999</v>
       </c>
-      <c r="AF14" s="2">
+      <c r="AJ14" s="2">
         <f t="shared" si="10"/>
         <v>125.66724920909999</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="AK14" s="2">
         <f t="shared" si="10"/>
         <v>113.10052428819</v>
       </c>
-      <c r="AH14" s="2">
+      <c r="AL14" s="2">
         <f t="shared" si="10"/>
         <v>101.79047185937101</v>
       </c>
-      <c r="AI14" s="2">
+      <c r="AM14" s="2">
         <f t="shared" si="10"/>
         <v>91.611424673433916</v>
       </c>
-      <c r="AJ14" s="2">
+      <c r="AN14" s="2">
         <f t="shared" si="10"/>
         <v>82.45028220609052</v>
       </c>
-      <c r="AK14" s="2">
+      <c r="AO14" s="2">
         <f t="shared" si="10"/>
         <v>74.205253985481477</v>
       </c>
-      <c r="AL14" s="2">
+      <c r="AP14" s="2">
         <f t="shared" si="10"/>
         <v>66.784728586933326</v>
       </c>
-      <c r="AM14" s="2"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AQ14" s="2"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="X15" s="2">
+      <c r="P15" s="2">
+        <v>37.715000000000003</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2">
+        <v>35.554000000000002</v>
+      </c>
+      <c r="AB15" s="2">
         <v>35.718000000000004</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="AC15" s="2">
         <v>97</v>
       </c>
-      <c r="Z15" s="2">
-        <f>Y15*1.5</f>
+      <c r="AD15" s="2">
+        <f>AC15*1.5</f>
         <v>145.5</v>
       </c>
-      <c r="AA15" s="2">
-        <f>Z15*1.2</f>
+      <c r="AE15" s="2">
+        <f>AD15*1.2</f>
         <v>174.6</v>
       </c>
-      <c r="AB15" s="2">
-        <f>AA15*1.1</f>
+      <c r="AF15" s="2">
+        <f>AE15*1.1</f>
         <v>192.06</v>
       </c>
-      <c r="AC15" s="2">
-        <f>AB15*1.1</f>
+      <c r="AG15" s="2">
+        <f>AF15*1.1</f>
         <v>211.26600000000002</v>
       </c>
-      <c r="AD15" s="2">
-        <f>AC15*1.1</f>
+      <c r="AH15" s="2">
+        <f>AG15*1.1</f>
         <v>232.39260000000004</v>
       </c>
-      <c r="AE15" s="2">
-        <f t="shared" ref="AD15:AE15" si="11">AD15*1.1</f>
+      <c r="AI15" s="2">
+        <f t="shared" ref="AI15" si="11">AH15*1.1</f>
         <v>255.63186000000007</v>
       </c>
-      <c r="AF15" s="2">
-        <f>AE15*0.95</f>
+      <c r="AJ15" s="2">
+        <f>AI15*0.95</f>
         <v>242.85026700000006</v>
       </c>
-      <c r="AG15" s="2">
-        <f>AF15*0.9</f>
+      <c r="AK15" s="2">
+        <f>AJ15*0.9</f>
         <v>218.56524030000006</v>
       </c>
-      <c r="AH15" s="2">
-        <f>AG15*0.9</f>
+      <c r="AL15" s="2">
+        <f>AK15*0.9</f>
         <v>196.70871627000005</v>
       </c>
-      <c r="AI15" s="2">
-        <f>AH15*0.85</f>
+      <c r="AM15" s="2">
+        <f>AL15*0.85</f>
         <v>167.20240882950003</v>
       </c>
-      <c r="AJ15" s="2">
-        <f>AI15*0.85</f>
+      <c r="AN15" s="2">
+        <f>AM15*0.85</f>
         <v>142.12204750507502</v>
       </c>
-      <c r="AK15" s="2">
-        <f>AJ15*0.8</f>
+      <c r="AO15" s="2">
+        <f>AN15*0.8</f>
         <v>113.69763800406002</v>
       </c>
-      <c r="AL15" s="2">
-        <f>AK15*0.8</f>
+      <c r="AP15" s="2">
+        <f>AO15*0.8</f>
         <v>90.958110403248028</v>
       </c>
-      <c r="AM15" s="2"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AQ15" s="2"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="X16" s="2">
+      <c r="P16" s="2">
+        <v>33.649000000000001</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2">
+        <v>39.052999999999997</v>
+      </c>
+      <c r="AB16" s="2">
         <v>0</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="AC16" s="2">
         <v>90</v>
       </c>
-      <c r="Z16">
-        <f>Y16*1.2</f>
+      <c r="AD16">
+        <f>AC16*1.2</f>
         <v>108</v>
       </c>
-      <c r="AA16" s="2">
-        <f>Z16*1.01</f>
+      <c r="AE16" s="2">
+        <f>AD16*1.01</f>
         <v>109.08</v>
       </c>
-      <c r="AB16" s="2">
-        <f t="shared" ref="AB16:AL16" si="12">AA16*1.01</f>
+      <c r="AF16" s="2">
+        <f t="shared" ref="AF16:AP16" si="12">AE16*1.01</f>
         <v>110.1708</v>
       </c>
-      <c r="AC16" s="2">
+      <c r="AG16" s="2">
         <f t="shared" si="12"/>
         <v>111.272508</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AH16" s="2">
         <f t="shared" si="12"/>
         <v>112.38523308000001</v>
       </c>
-      <c r="AE16" s="2">
+      <c r="AI16" s="2">
         <f t="shared" si="12"/>
         <v>113.50908541080001</v>
       </c>
-      <c r="AF16" s="2">
+      <c r="AJ16" s="2">
         <f t="shared" si="12"/>
         <v>114.64417626490801</v>
       </c>
-      <c r="AG16" s="2">
+      <c r="AK16" s="2">
         <f t="shared" si="12"/>
         <v>115.79061802755709</v>
       </c>
-      <c r="AH16" s="2">
+      <c r="AL16" s="2">
         <f t="shared" si="12"/>
         <v>116.94852420783266</v>
       </c>
-      <c r="AI16" s="2">
+      <c r="AM16" s="2">
         <f t="shared" si="12"/>
         <v>118.11800944991099</v>
       </c>
-      <c r="AJ16" s="2">
+      <c r="AN16" s="2">
         <f t="shared" si="12"/>
         <v>119.2991895444101</v>
       </c>
-      <c r="AK16" s="2">
+      <c r="AO16" s="2">
         <f t="shared" si="12"/>
         <v>120.49218143985419</v>
       </c>
-      <c r="AL16" s="2">
+      <c r="AP16" s="2">
         <f t="shared" si="12"/>
         <v>121.69710325425274</v>
       </c>
     </row>
-    <row r="17" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="X17" s="2">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="AB17" s="2">
         <v>151.15799999999999</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="AC17" s="2">
         <v>73</v>
       </c>
-      <c r="Z17" s="2">
-        <f>Y17*0.9</f>
+      <c r="AD17" s="2">
+        <f>AC17*0.9</f>
         <v>65.7</v>
       </c>
-      <c r="AA17" s="2">
-        <f>Z17*0.8</f>
+      <c r="AE17" s="2">
+        <f>AD17*0.8</f>
         <v>52.56</v>
       </c>
-      <c r="AB17" s="2">
-        <f>AA17*0.7</f>
+      <c r="AF17" s="2">
+        <f>AE17*0.7</f>
         <v>36.792000000000002</v>
       </c>
-      <c r="AC17" s="2">
-        <f t="shared" ref="AC17:AL17" si="13">AB17*0.7</f>
+      <c r="AG17" s="2">
+        <f t="shared" ref="AG17:AP17" si="13">AF17*0.7</f>
         <v>25.7544</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AH17" s="2">
         <f t="shared" si="13"/>
         <v>18.028079999999999</v>
       </c>
-      <c r="AE17" s="2">
+      <c r="AI17" s="2">
         <f t="shared" si="13"/>
         <v>12.619655999999999</v>
       </c>
-      <c r="AF17" s="2">
+      <c r="AJ17" s="2">
         <f t="shared" si="13"/>
         <v>8.8337591999999994</v>
       </c>
-      <c r="AG17" s="2">
+      <c r="AK17" s="2">
         <f t="shared" si="13"/>
         <v>6.1836314399999992</v>
       </c>
-      <c r="AH17" s="2">
+      <c r="AL17" s="2">
         <f t="shared" si="13"/>
         <v>4.3285420079999994</v>
       </c>
-      <c r="AI17" s="2">
+      <c r="AM17" s="2">
         <f t="shared" si="13"/>
         <v>3.0299794055999993</v>
       </c>
-      <c r="AJ17" s="2">
+      <c r="AN17" s="2">
         <f t="shared" si="13"/>
         <v>2.1209855839199996</v>
       </c>
-      <c r="AK17" s="2">
+      <c r="AO17" s="2">
         <f t="shared" si="13"/>
         <v>1.4846899087439995</v>
       </c>
-      <c r="AL17" s="2">
+      <c r="AP17" s="2">
         <f t="shared" si="13"/>
         <v>1.0392829361207996</v>
       </c>
     </row>
-    <row r="18" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="X18" s="2">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="AB18" s="2">
         <v>33.722000000000001</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="AC18" s="2">
         <v>55</v>
       </c>
-      <c r="Z18" s="2">
-        <f>Y18*0.9</f>
+      <c r="AD18" s="2">
+        <f>AC18*0.9</f>
         <v>49.5</v>
       </c>
-      <c r="AA18" s="2">
-        <f t="shared" ref="AA18:AC18" si="14">Z18*0.9</f>
+      <c r="AE18" s="2">
+        <f t="shared" ref="AE18:AG18" si="14">AD18*0.9</f>
         <v>44.550000000000004</v>
       </c>
-      <c r="AB18" s="2">
+      <c r="AF18" s="2">
         <f t="shared" si="14"/>
         <v>40.095000000000006</v>
       </c>
-      <c r="AC18" s="2">
+      <c r="AG18" s="2">
         <f t="shared" si="14"/>
         <v>36.085500000000003</v>
       </c>
-      <c r="AD18" s="2">
-        <f>AC18*0.1</f>
+      <c r="AH18" s="2">
+        <f>AG18*0.1</f>
         <v>3.6085500000000006</v>
       </c>
-      <c r="AE18" s="2">
-        <f t="shared" ref="AE18:AL18" si="15">AD18*0.1</f>
+      <c r="AI18" s="2">
+        <f t="shared" ref="AI18:AP18" si="15">AH18*0.1</f>
         <v>0.36085500000000009</v>
       </c>
-      <c r="AF18" s="2">
+      <c r="AJ18" s="2">
         <f t="shared" si="15"/>
         <v>3.6085500000000013E-2</v>
       </c>
-      <c r="AG18" s="2">
+      <c r="AK18" s="2">
         <f t="shared" si="15"/>
         <v>3.6085500000000016E-3</v>
       </c>
-      <c r="AH18" s="2">
+      <c r="AL18" s="2">
         <f t="shared" si="15"/>
         <v>3.608550000000002E-4</v>
       </c>
-      <c r="AI18" s="2">
+      <c r="AM18" s="2">
         <f t="shared" si="15"/>
         <v>3.6085500000000019E-5</v>
       </c>
-      <c r="AJ18" s="2">
+      <c r="AN18" s="2">
         <f t="shared" si="15"/>
         <v>3.6085500000000021E-6</v>
       </c>
-      <c r="AK18" s="2">
+      <c r="AO18" s="2">
         <f t="shared" si="15"/>
         <v>3.6085500000000025E-7</v>
       </c>
-      <c r="AL18" s="2">
+      <c r="AP18" s="2">
         <f t="shared" si="15"/>
         <v>3.6085500000000029E-8</v>
       </c>
     </row>
-    <row r="19" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="X19" s="2">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="AB19" s="2">
         <v>36.378</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="AC19" s="2">
         <v>43.84</v>
       </c>
-      <c r="Z19" s="2">
-        <f t="shared" ref="Z19:AC19" si="16">Y19*0.9</f>
+      <c r="AD19" s="2">
+        <f t="shared" ref="AD19:AG19" si="16">AC19*0.9</f>
         <v>39.456000000000003</v>
       </c>
-      <c r="AA19" s="2">
+      <c r="AE19" s="2">
         <f t="shared" si="16"/>
         <v>35.510400000000004</v>
       </c>
-      <c r="AB19" s="2">
+      <c r="AF19" s="2">
         <f t="shared" si="16"/>
         <v>31.959360000000004</v>
       </c>
-      <c r="AC19" s="2">
+      <c r="AG19" s="2">
         <f t="shared" si="16"/>
         <v>28.763424000000004</v>
       </c>
-      <c r="AD19" s="2">
-        <f t="shared" ref="AD19:AL19" si="17">AC19*0.1</f>
+      <c r="AH19" s="2">
+        <f t="shared" ref="AH19:AP19" si="17">AG19*0.1</f>
         <v>2.8763424000000004</v>
       </c>
-      <c r="AE19" s="2">
+      <c r="AI19" s="2">
         <f t="shared" si="17"/>
         <v>0.28763424000000004</v>
       </c>
-      <c r="AF19" s="2">
+      <c r="AJ19" s="2">
         <f t="shared" si="17"/>
         <v>2.8763424000000006E-2</v>
       </c>
-      <c r="AG19" s="2">
+      <c r="AK19" s="2">
         <f t="shared" si="17"/>
         <v>2.8763424000000006E-3</v>
       </c>
-      <c r="AH19" s="2">
+      <c r="AL19" s="2">
         <f t="shared" si="17"/>
         <v>2.8763424000000006E-4</v>
       </c>
-      <c r="AI19" s="2">
+      <c r="AM19" s="2">
         <f t="shared" si="17"/>
         <v>2.8763424000000009E-5</v>
       </c>
-      <c r="AJ19" s="2">
+      <c r="AN19" s="2">
         <f t="shared" si="17"/>
         <v>2.8763424000000012E-6</v>
       </c>
-      <c r="AK19" s="2">
+      <c r="AO19" s="2">
         <f t="shared" si="17"/>
         <v>2.8763424000000012E-7</v>
       </c>
-      <c r="AL19" s="2">
+      <c r="AP19" s="2">
         <f t="shared" si="17"/>
         <v>2.8763424000000014E-8</v>
       </c>
     </row>
-    <row r="20" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X20" s="2">
+      <c r="P20" s="2">
+        <v>19.718</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2">
+        <v>54.537999999999997</v>
+      </c>
+      <c r="AB20" s="2">
         <v>16.097999999999999</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="AC20" s="2">
         <v>40.645000000000003</v>
       </c>
-      <c r="Z20" s="2">
-        <f>Y20*1.2</f>
+      <c r="AD20" s="2">
+        <f>AC20*1.2</f>
         <v>48.774000000000001</v>
       </c>
-      <c r="AA20" s="2">
-        <f>Z20*0.99</f>
+      <c r="AE20" s="2">
+        <f>AD20*0.99</f>
         <v>48.286259999999999</v>
       </c>
-      <c r="AB20" s="2">
-        <f t="shared" ref="AB20:AL20" si="18">AA20*0.99</f>
+      <c r="AF20" s="2">
+        <f t="shared" ref="AF20:AP20" si="18">AE20*0.99</f>
         <v>47.803397400000001</v>
       </c>
-      <c r="AC20" s="2">
+      <c r="AG20" s="2">
         <f t="shared" si="18"/>
         <v>47.325363426000003</v>
       </c>
-      <c r="AD20" s="2">
+      <c r="AH20" s="2">
         <f t="shared" si="18"/>
         <v>46.852109791740006</v>
       </c>
-      <c r="AE20" s="2">
+      <c r="AI20" s="2">
         <f t="shared" si="18"/>
         <v>46.383588693822603</v>
       </c>
-      <c r="AF20" s="2">
+      <c r="AJ20" s="2">
         <f t="shared" si="18"/>
         <v>45.919752806884375</v>
       </c>
-      <c r="AG20" s="2">
+      <c r="AK20" s="2">
         <f t="shared" si="18"/>
         <v>45.460555278815534</v>
       </c>
-      <c r="AH20" s="2">
+      <c r="AL20" s="2">
         <f t="shared" si="18"/>
         <v>45.005949726027374</v>
       </c>
-      <c r="AI20" s="2">
+      <c r="AM20" s="2">
         <f t="shared" si="18"/>
         <v>44.555890228767097</v>
       </c>
-      <c r="AJ20" s="2">
+      <c r="AN20" s="2">
         <f t="shared" si="18"/>
         <v>44.110331326479425</v>
       </c>
-      <c r="AK20" s="2">
+      <c r="AO20" s="2">
         <f t="shared" si="18"/>
         <v>43.669228013214628</v>
       </c>
-      <c r="AL20" s="2">
+      <c r="AP20" s="2">
         <f t="shared" si="18"/>
         <v>43.232535733082479</v>
       </c>
     </row>
-    <row r="21" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>58</v>
       </c>
-      <c r="X21" s="2">
+      <c r="AB21" s="2">
         <v>37.505000000000003</v>
       </c>
-      <c r="Y21" s="2">
+      <c r="AC21" s="2">
         <v>37</v>
       </c>
-      <c r="Z21" s="2">
-        <f t="shared" ref="Z21" si="19">Y21*1.2</f>
+      <c r="AD21" s="2">
+        <f t="shared" ref="AD21" si="19">AC21*1.2</f>
         <v>44.4</v>
       </c>
-      <c r="AA21" s="2">
-        <f t="shared" ref="AA21:AL21" si="20">Z21*0.99</f>
+      <c r="AE21" s="2">
+        <f t="shared" ref="AE21:AP21" si="20">AD21*0.99</f>
         <v>43.955999999999996</v>
       </c>
-      <c r="AB21" s="2">
+      <c r="AF21" s="2">
         <f t="shared" si="20"/>
         <v>43.516439999999996</v>
       </c>
-      <c r="AC21" s="2">
+      <c r="AG21" s="2">
         <f t="shared" si="20"/>
         <v>43.081275599999998</v>
       </c>
-      <c r="AD21" s="2">
+      <c r="AH21" s="2">
         <f t="shared" si="20"/>
         <v>42.650462843999996</v>
       </c>
-      <c r="AE21" s="2">
+      <c r="AI21" s="2">
         <f t="shared" si="20"/>
         <v>42.223958215559996</v>
       </c>
-      <c r="AF21" s="2">
+      <c r="AJ21" s="2">
         <f t="shared" si="20"/>
         <v>41.801718633404398</v>
       </c>
-      <c r="AG21" s="2">
+      <c r="AK21" s="2">
         <f t="shared" si="20"/>
         <v>41.383701447070351</v>
       </c>
-      <c r="AH21" s="2">
+      <c r="AL21" s="2">
         <f t="shared" si="20"/>
         <v>40.96986443259965</v>
       </c>
-      <c r="AI21" s="2">
+      <c r="AM21" s="2">
         <f t="shared" si="20"/>
         <v>40.56016578827365</v>
       </c>
-      <c r="AJ21" s="2">
+      <c r="AN21" s="2">
         <f t="shared" si="20"/>
         <v>40.154564130390916</v>
       </c>
-      <c r="AK21" s="2">
+      <c r="AO21" s="2">
         <f t="shared" si="20"/>
         <v>39.753018489087005</v>
       </c>
-      <c r="AL21" s="2">
+      <c r="AP21" s="2">
         <f t="shared" si="20"/>
         <v>39.355488304196136</v>
       </c>
     </row>
-    <row r="22" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>57</v>
       </c>
-      <c r="X22" s="2">
+      <c r="AB22" s="2">
         <v>13.395</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="AC22" s="2">
         <v>24.809000000000001</v>
       </c>
-      <c r="Z22" s="2">
-        <f>Y22*1.2</f>
+      <c r="AD22" s="2">
+        <f>AC22*1.2</f>
         <v>29.770800000000001</v>
       </c>
-      <c r="AA22" s="2">
-        <f>Z22*1.2</f>
+      <c r="AE22" s="2">
+        <f>AD22*1.2</f>
         <v>35.724960000000003</v>
       </c>
-      <c r="AB22" s="2">
-        <f>AA22*1.2</f>
+      <c r="AF22" s="2">
+        <f>AE22*1.2</f>
         <v>42.869952000000005</v>
       </c>
-      <c r="AC22" s="2">
-        <f>AB22*1.2</f>
+      <c r="AG22" s="2">
+        <f>AF22*1.2</f>
         <v>51.443942400000005</v>
       </c>
-      <c r="AD22" s="2">
-        <f>AC22*1.01</f>
+      <c r="AH22" s="2">
+        <f>AG22*1.01</f>
         <v>51.958381824000007</v>
       </c>
-      <c r="AE22" s="2">
-        <f t="shared" ref="AE22:AL22" si="21">AD22*1.01</f>
+      <c r="AI22" s="2">
+        <f t="shared" ref="AI22:AP22" si="21">AH22*1.01</f>
         <v>52.477965642240008</v>
       </c>
-      <c r="AF22" s="2">
+      <c r="AJ22" s="2">
         <f t="shared" si="21"/>
         <v>53.002745298662411</v>
       </c>
-      <c r="AG22" s="2">
+      <c r="AK22" s="2">
         <f t="shared" si="21"/>
         <v>53.532772751649034</v>
       </c>
-      <c r="AH22" s="2">
+      <c r="AL22" s="2">
         <f t="shared" si="21"/>
         <v>54.068100479165523</v>
       </c>
-      <c r="AI22" s="2">
+      <c r="AM22" s="2">
         <f t="shared" si="21"/>
         <v>54.608781483957181</v>
       </c>
-      <c r="AJ22" s="2">
+      <c r="AN22" s="2">
         <f t="shared" si="21"/>
         <v>55.154869298796754</v>
       </c>
-      <c r="AK22" s="2">
+      <c r="AO22" s="2">
         <f t="shared" si="21"/>
         <v>55.706417991784726</v>
       </c>
-      <c r="AL22" s="2">
+      <c r="AP22" s="2">
         <f t="shared" si="21"/>
         <v>56.26348217170257</v>
       </c>
     </row>
-    <row r="23" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>56</v>
       </c>
-      <c r="X23" s="2">
+      <c r="AB23" s="2">
         <v>6.74</v>
       </c>
-      <c r="Y23" s="2">
+      <c r="AC23" s="2">
         <v>21.800999999999998</v>
       </c>
-      <c r="Z23" s="2">
-        <f>Y23*1.2</f>
+      <c r="AD23" s="2">
+        <f>AC23*1.2</f>
         <v>26.161199999999997</v>
       </c>
-      <c r="AA23" s="2">
-        <f>Z23*1.01</f>
+      <c r="AE23" s="2">
+        <f>AD23*1.01</f>
         <v>26.422811999999997</v>
       </c>
-      <c r="AB23" s="2">
-        <f t="shared" ref="AB23:AL23" si="22">AA23*1.01</f>
+      <c r="AF23" s="2">
+        <f t="shared" ref="AF23:AP23" si="22">AE23*1.01</f>
         <v>26.687040119999995</v>
       </c>
-      <c r="AC23" s="2">
+      <c r="AG23" s="2">
         <f t="shared" si="22"/>
         <v>26.953910521199994</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AH23" s="2">
         <f t="shared" si="22"/>
         <v>27.223449626411995</v>
       </c>
-      <c r="AE23" s="2">
+      <c r="AI23" s="2">
         <f t="shared" si="22"/>
         <v>27.495684122676114</v>
       </c>
-      <c r="AF23" s="2">
+      <c r="AJ23" s="2">
         <f t="shared" si="22"/>
         <v>27.770640963902874</v>
       </c>
-      <c r="AG23" s="2">
+      <c r="AK23" s="2">
         <f t="shared" si="22"/>
         <v>28.048347373541905</v>
       </c>
-      <c r="AH23" s="2">
+      <c r="AL23" s="2">
         <f t="shared" si="22"/>
         <v>28.328830847277324</v>
       </c>
-      <c r="AI23" s="2">
+      <c r="AM23" s="2">
         <f t="shared" si="22"/>
         <v>28.612119155750097</v>
       </c>
-      <c r="AJ23" s="2">
+      <c r="AN23" s="2">
         <f t="shared" si="22"/>
         <v>28.898240347307599</v>
       </c>
-      <c r="AK23" s="2">
+      <c r="AO23" s="2">
         <f t="shared" si="22"/>
         <v>29.187222750780677</v>
       </c>
-      <c r="AL23" s="2">
+      <c r="AP23" s="2">
         <f t="shared" si="22"/>
         <v>29.479094978288483</v>
       </c>
     </row>
-    <row r="24" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="X24" s="2">
+      <c r="AB24" s="2">
         <v>14.227</v>
       </c>
-      <c r="Y24" s="2">
+      <c r="AC24" s="2">
         <v>21</v>
       </c>
-      <c r="Z24" s="2">
-        <f t="shared" ref="Z24" si="23">Y24*1.2</f>
+      <c r="AD24" s="2">
+        <f t="shared" ref="AD24" si="23">AC24*1.2</f>
         <v>25.2</v>
       </c>
-      <c r="AA24" s="2">
-        <f t="shared" ref="AA24:AL24" si="24">Z24*1.01</f>
+      <c r="AE24" s="2">
+        <f t="shared" ref="AE24:AP24" si="24">AD24*1.01</f>
         <v>25.451999999999998</v>
       </c>
-      <c r="AB24" s="2">
+      <c r="AF24" s="2">
         <f t="shared" si="24"/>
         <v>25.706519999999998</v>
       </c>
-      <c r="AC24" s="2">
+      <c r="AG24" s="2">
         <f t="shared" si="24"/>
         <v>25.963585199999997</v>
       </c>
-      <c r="AD24" s="2">
+      <c r="AH24" s="2">
         <f t="shared" si="24"/>
         <v>26.223221051999996</v>
       </c>
-      <c r="AE24" s="2">
+      <c r="AI24" s="2">
         <f t="shared" si="24"/>
         <v>26.485453262519997</v>
       </c>
-      <c r="AF24" s="2">
+      <c r="AJ24" s="2">
         <f t="shared" si="24"/>
         <v>26.750307795145197</v>
       </c>
-      <c r="AG24" s="2">
+      <c r="AK24" s="2">
         <f t="shared" si="24"/>
         <v>27.01781087309665</v>
       </c>
-      <c r="AH24" s="2">
+      <c r="AL24" s="2">
         <f t="shared" si="24"/>
         <v>27.287988981827617</v>
       </c>
-      <c r="AI24" s="2">
+      <c r="AM24" s="2">
         <f t="shared" si="24"/>
         <v>27.560868871645894</v>
       </c>
-      <c r="AJ24" s="2">
+      <c r="AN24" s="2">
         <f t="shared" si="24"/>
         <v>27.836477560362354</v>
       </c>
-      <c r="AK24" s="2">
+      <c r="AO24" s="2">
         <f t="shared" si="24"/>
         <v>28.114842335965978</v>
       </c>
-      <c r="AL24" s="2">
+      <c r="AP24" s="2">
         <f t="shared" si="24"/>
         <v>28.395990759325638</v>
       </c>
     </row>
-    <row r="25" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="X25" s="2">
+      <c r="AB25" s="2">
         <v>16.741</v>
       </c>
-      <c r="Y25" s="2">
+      <c r="AC25" s="2">
         <v>20</v>
       </c>
-      <c r="Z25" s="2">
-        <f>Y25*1.1</f>
+      <c r="AD25" s="2">
+        <f>AC25*1.1</f>
         <v>22</v>
       </c>
-      <c r="AA25" s="2">
-        <f t="shared" ref="AA25:AE25" si="25">Z25*1.1</f>
+      <c r="AE25" s="2">
+        <f t="shared" ref="AE25:AI25" si="25">AD25*1.1</f>
         <v>24.200000000000003</v>
       </c>
-      <c r="AB25" s="2">
+      <c r="AF25" s="2">
         <f t="shared" si="25"/>
         <v>26.620000000000005</v>
       </c>
-      <c r="AC25" s="2">
+      <c r="AG25" s="2">
         <f t="shared" si="25"/>
         <v>29.282000000000007</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AH25" s="2">
         <f t="shared" si="25"/>
         <v>32.210200000000007</v>
       </c>
-      <c r="AE25" s="2">
+      <c r="AI25" s="2">
         <f t="shared" si="25"/>
         <v>35.43122000000001</v>
       </c>
-      <c r="AF25" s="2">
-        <f>AE25*1.01</f>
+      <c r="AJ25" s="2">
+        <f>AI25*1.01</f>
         <v>35.785532200000013</v>
       </c>
-      <c r="AG25" s="2">
-        <f t="shared" ref="AG25:AL25" si="26">AF25*1.01</f>
+      <c r="AK25" s="2">
+        <f t="shared" ref="AK25:AP25" si="26">AJ25*1.01</f>
         <v>36.143387522000012</v>
       </c>
-      <c r="AH25" s="2">
+      <c r="AL25" s="2">
         <f t="shared" si="26"/>
         <v>36.504821397220013</v>
       </c>
-      <c r="AI25" s="2">
+      <c r="AM25" s="2">
         <f t="shared" si="26"/>
         <v>36.869869611192215</v>
       </c>
-      <c r="AJ25" s="2">
+      <c r="AN25" s="2">
         <f t="shared" si="26"/>
         <v>37.238568307304135</v>
       </c>
-      <c r="AK25" s="2">
+      <c r="AO25" s="2">
         <f t="shared" si="26"/>
         <v>37.610953990377176</v>
       </c>
-      <c r="AL25" s="2">
+      <c r="AP25" s="2">
         <f t="shared" si="26"/>
         <v>37.987063530280949</v>
       </c>
-      <c r="AN25" s="18">
+      <c r="AR25" s="16">
         <v>0.01</v>
       </c>
-      <c r="AO25" s="2">
-        <f t="shared" ref="AO25:AO27" si="27">NPV(AN25,$Z$28:$AL$28)</f>
+      <c r="AS25" s="2">
+        <f t="shared" ref="AS25:AS27" si="27">NPV(AR25,$AD$28:$AP$28)</f>
         <v>28732.681743132147</v>
       </c>
     </row>
-    <row r="26" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="X26" s="2">
+      <c r="AB26" s="2">
         <v>15.481</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="AC26" s="2">
         <v>19</v>
       </c>
-      <c r="Z26" s="2">
-        <f>Y26*0.99</f>
+      <c r="AD26" s="2">
+        <f>AC26*0.99</f>
         <v>18.809999999999999</v>
       </c>
-      <c r="AA26" s="2">
-        <f t="shared" ref="AA26:AL26" si="28">Z26*0.99</f>
+      <c r="AE26" s="2">
+        <f t="shared" ref="AE26:AP26" si="28">AD26*0.99</f>
         <v>18.6219</v>
       </c>
-      <c r="AB26" s="2">
+      <c r="AF26" s="2">
         <f t="shared" si="28"/>
         <v>18.435680999999999</v>
       </c>
-      <c r="AC26" s="2">
+      <c r="AG26" s="2">
         <f t="shared" si="28"/>
         <v>18.251324189999998</v>
       </c>
-      <c r="AD26" s="2">
+      <c r="AH26" s="2">
         <f t="shared" si="28"/>
         <v>18.068810948099998</v>
       </c>
-      <c r="AE26" s="2">
+      <c r="AI26" s="2">
         <f t="shared" si="28"/>
         <v>17.888122838618997</v>
       </c>
-      <c r="AF26" s="2">
+      <c r="AJ26" s="2">
         <f t="shared" si="28"/>
         <v>17.709241610232809</v>
       </c>
-      <c r="AG26" s="2">
+      <c r="AK26" s="2">
         <f t="shared" si="28"/>
         <v>17.532149194130479</v>
       </c>
-      <c r="AH26" s="2">
+      <c r="AL26" s="2">
         <f t="shared" si="28"/>
         <v>17.356827702189175</v>
       </c>
-      <c r="AI26" s="2">
+      <c r="AM26" s="2">
         <f t="shared" si="28"/>
         <v>17.183259425167282</v>
       </c>
-      <c r="AJ26" s="2">
+      <c r="AN26" s="2">
         <f t="shared" si="28"/>
         <v>17.01142683091561</v>
       </c>
-      <c r="AK26" s="2">
+      <c r="AO26" s="2">
         <f t="shared" si="28"/>
         <v>16.841312562606454</v>
       </c>
-      <c r="AL26" s="2">
+      <c r="AP26" s="2">
         <f t="shared" si="28"/>
         <v>16.672899436980391</v>
       </c>
-      <c r="AN26" s="18">
+      <c r="AR26" s="16">
         <v>0.02</v>
       </c>
-      <c r="AO26" s="2">
+      <c r="AS26" s="2">
         <f t="shared" si="27"/>
         <v>27003.974817446797</v>
       </c>
     </row>
-    <row r="27" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>52</v>
       </c>
-      <c r="X27" s="2">
+      <c r="AB27" s="2">
         <v>1.248</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="AC27" s="2">
         <v>3</v>
       </c>
-      <c r="Z27" s="2">
-        <f>Y27*1.01</f>
+      <c r="AD27" s="2">
+        <f>AC27*1.01</f>
         <v>3.0300000000000002</v>
       </c>
-      <c r="AA27" s="2">
-        <f t="shared" ref="AA27:AL27" si="29">Z27*1.01</f>
+      <c r="AE27" s="2">
+        <f t="shared" ref="AE27:AP27" si="29">AD27*1.01</f>
         <v>3.0603000000000002</v>
       </c>
-      <c r="AB27" s="2">
+      <c r="AF27" s="2">
         <f t="shared" si="29"/>
         <v>3.0909030000000004</v>
       </c>
-      <c r="AC27" s="2">
+      <c r="AG27" s="2">
         <f t="shared" si="29"/>
         <v>3.1218120300000005</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AH27" s="2">
         <f t="shared" si="29"/>
         <v>3.1530301503000007</v>
       </c>
-      <c r="AE27" s="2">
+      <c r="AI27" s="2">
         <f t="shared" si="29"/>
         <v>3.1845604518030006</v>
       </c>
-      <c r="AF27" s="2">
+      <c r="AJ27" s="2">
         <f t="shared" si="29"/>
         <v>3.2164060563210306</v>
       </c>
-      <c r="AG27" s="2">
+      <c r="AK27" s="2">
         <f t="shared" si="29"/>
         <v>3.2485701168842409</v>
       </c>
-      <c r="AH27" s="2">
+      <c r="AL27" s="2">
         <f t="shared" si="29"/>
         <v>3.2810558180530833</v>
       </c>
-      <c r="AI27" s="2">
+      <c r="AM27" s="2">
         <f t="shared" si="29"/>
         <v>3.313866376233614</v>
       </c>
-      <c r="AJ27" s="2">
+      <c r="AN27" s="2">
         <f t="shared" si="29"/>
         <v>3.3470050399959503</v>
       </c>
-      <c r="AK27" s="2">
+      <c r="AO27" s="2">
         <f t="shared" si="29"/>
         <v>3.38047509039591</v>
       </c>
-      <c r="AL27" s="2">
+      <c r="AP27" s="2">
         <f t="shared" si="29"/>
         <v>3.4142798412998689</v>
       </c>
-      <c r="AN27" s="18">
+      <c r="AR27" s="16">
         <v>0.03</v>
       </c>
-      <c r="AO27" s="2">
+      <c r="AS27" s="2">
         <f t="shared" si="27"/>
         <v>25425.443574130655</v>
       </c>
     </row>
-    <row r="28" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>102</v>
       </c>
-      <c r="X28" s="2">
-        <f>X4+X6+X8+X10+X12+SUM(X14:X27)</f>
+      <c r="AB28" s="2">
+        <f>AB4+AB6+AB8+AB10+AB12+SUM(AB14:AB27)</f>
         <v>2538.3540000000003</v>
       </c>
-      <c r="Y28" s="2">
-        <f>Y4+Y6+Y8+Y10+Y12+SUM(Y14:Y27)</f>
+      <c r="AC28" s="2">
+        <f>AC4+AC6+AC8+AC10+AC12+SUM(AC14:AC27)</f>
         <v>2671.8339999999998</v>
       </c>
-      <c r="Z28" s="2">
-        <f t="shared" ref="Z28:AL28" si="30">Z4+Z6+Z8+Z10+Z12+SUM(Z14:Z27)</f>
+      <c r="AD28" s="2">
+        <f t="shared" ref="AD28:AP28" si="30">AD4+AD6+AD8+AD10+AD12+SUM(AD14:AD27)</f>
         <v>2723.8471000000004</v>
       </c>
-      <c r="AA28" s="2">
+      <c r="AE28" s="2">
         <f t="shared" si="30"/>
         <v>2720.2682220000002</v>
       </c>
-      <c r="AB28" s="2">
+      <c r="AF28" s="2">
         <f t="shared" si="30"/>
         <v>2610.7916365199999</v>
       </c>
-      <c r="AC28" s="2">
+      <c r="AG28" s="2">
         <f t="shared" si="30"/>
         <v>2527.6974243872</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AH28" s="2">
         <f t="shared" si="30"/>
         <v>2476.4661862577523</v>
       </c>
-      <c r="AE28" s="2">
+      <c r="AI28" s="2">
         <f t="shared" si="30"/>
         <v>2497.3533279175526</v>
       </c>
-      <c r="AF28" s="2">
+      <c r="AJ28" s="2">
         <f t="shared" si="30"/>
         <v>2493.7657830254784</v>
       </c>
-      <c r="AG28" s="2">
+      <c r="AK28" s="2">
         <f t="shared" si="30"/>
         <v>2486.92712409667</v>
       </c>
-      <c r="AH28" s="2">
+      <c r="AL28" s="2">
         <f t="shared" si="30"/>
         <v>2386.409618550611</v>
       </c>
-      <c r="AI28" s="2">
+      <c r="AM28" s="2">
         <f t="shared" si="30"/>
         <v>2335.5528303766646</v>
       </c>
-      <c r="AJ28" s="2">
+      <c r="AN28" s="2">
         <f t="shared" si="30"/>
         <v>2320.8197407762073</v>
       </c>
-      <c r="AK28" s="2">
+      <c r="AO28" s="2">
         <f t="shared" si="30"/>
         <v>2113.5094978972379</v>
       </c>
-      <c r="AL28" s="2">
+      <c r="AP28" s="2">
         <f t="shared" si="30"/>
         <v>935.94264487275291</v>
       </c>
-      <c r="AN28" s="18">
+      <c r="AR28" s="16">
         <v>0.04</v>
       </c>
-      <c r="AO28" s="2">
-        <f>NPV(AN28,$Z$28:$AL$28)</f>
+      <c r="AS28" s="2">
+        <f>NPV(AR28,$AD$28:$AP$28)</f>
         <v>23981.425369581204</v>
       </c>
     </row>
-    <row r="29" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>104</v>
       </c>
-      <c r="X29" s="2">
+      <c r="AB29" s="2">
         <v>70.188000000000002</v>
       </c>
-      <c r="Y29" s="2">
+      <c r="AC29" s="2">
         <f>559.623</f>
         <v>559.62300000000005</v>
       </c>
-      <c r="AN29" s="18">
-        <f>AN28+1%</f>
+      <c r="AR29" s="16">
+        <f>AR28+1%</f>
         <v>0.05</v>
       </c>
-      <c r="AO29" s="2">
-        <f t="shared" ref="AO29:AO35" si="31">NPV(AN29,$Z$28:$AL$28)</f>
+      <c r="AS29" s="2">
+        <f t="shared" ref="AS29:AS35" si="31">NPV(AR29,$AD$28:$AP$28)</f>
         <v>22658.103509842338</v>
       </c>
     </row>
-    <row r="30" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>105</v>
       </c>
-      <c r="X30" s="2">
-        <f>X28+X29</f>
+      <c r="AB30" s="2">
+        <f>AB28+AB29</f>
         <v>2608.5420000000004</v>
       </c>
-      <c r="Y30" s="2">
-        <f>Y28+Y29</f>
+      <c r="AC30" s="2">
+        <f>AC28+AC29</f>
         <v>3231.4569999999999</v>
       </c>
-      <c r="AN30" s="18">
-        <f t="shared" ref="AN30:AN35" si="32">AN29+1%</f>
+      <c r="AR30" s="16">
+        <f t="shared" ref="AR30:AR35" si="32">AR29+1%</f>
         <v>6.0000000000000005E-2</v>
       </c>
-      <c r="AO30" s="2">
+      <c r="AS30" s="2">
         <f t="shared" si="31"/>
         <v>21443.26837156502</v>
       </c>
     </row>
-    <row r="31" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="AN31" s="18">
+    <row r="31" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="AR31" s="16">
         <f t="shared" si="32"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO31" s="2">
+      <c r="AS31" s="2">
         <f t="shared" si="31"/>
         <v>20326.111905131995</v>
       </c>
     </row>
-    <row r="32" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>20</v>
       </c>
@@ -2960,25 +3062,25 @@
         <v>551.68200000000002</v>
       </c>
       <c r="N32" s="4"/>
-      <c r="W32" s="2">
+      <c r="AA32" s="2">
         <v>1959.9749999999999</v>
       </c>
-      <c r="X32" s="2">
+      <c r="AB32" s="2">
         <v>2065.0830000000001</v>
       </c>
-      <c r="Y32" s="2">
+      <c r="AC32" s="2">
         <v>2125.096</v>
       </c>
-      <c r="AN32" s="18">
+      <c r="AR32" s="16">
         <f t="shared" si="32"/>
         <v>0.08</v>
       </c>
-      <c r="AO32" s="2">
+      <c r="AS32" s="2">
         <f t="shared" si="31"/>
         <v>19297.050536907314</v>
       </c>
     </row>
-    <row r="33" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>21</v>
       </c>
@@ -2998,25 +3100,25 @@
         <v>1.073</v>
       </c>
       <c r="N33" s="4"/>
-      <c r="W33" s="2">
+      <c r="AA33" s="2">
         <v>143.38200000000001</v>
       </c>
-      <c r="X33" s="2">
+      <c r="AB33" s="2">
         <v>171.24799999999999</v>
       </c>
-      <c r="Y33" s="2">
+      <c r="AC33" s="2">
         <v>37.484000000000002</v>
       </c>
-      <c r="AN33" s="18">
+      <c r="AR33" s="16">
         <f t="shared" si="32"/>
         <v>0.09</v>
       </c>
-      <c r="AO33" s="2">
+      <c r="AS33" s="2">
         <f t="shared" si="31"/>
         <v>18347.572275962833</v>
       </c>
     </row>
-    <row r="34" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>22</v>
       </c>
@@ -3036,25 +3138,31 @@
         <v>20.707999999999998</v>
       </c>
       <c r="N34" s="4"/>
-      <c r="W34" s="2">
+      <c r="P34" s="2">
+        <v>36.856999999999999</v>
+      </c>
+      <c r="T34" s="2">
+        <v>24.402000000000001</v>
+      </c>
+      <c r="AA34" s="2">
         <v>18.995999999999999</v>
       </c>
-      <c r="X34" s="2">
+      <c r="AB34" s="2">
         <v>53.131999999999998</v>
       </c>
-      <c r="Y34" s="2">
+      <c r="AC34" s="2">
         <v>74.635000000000005</v>
       </c>
-      <c r="AN34" s="18">
+      <c r="AR34" s="16">
         <f t="shared" si="32"/>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="AO34" s="2">
+      <c r="AS34" s="2">
         <f t="shared" si="31"/>
         <v>17470.10448759262</v>
       </c>
     </row>
-    <row r="35" spans="2:41" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:45" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
         <v>8</v>
       </c>
@@ -3076,28 +3184,36 @@
         <v>573.46299999999997</v>
       </c>
       <c r="N35" s="6"/>
-      <c r="W35" s="5">
-        <f>SUM(W32:W34)</f>
+      <c r="P35" s="5">
+        <f>SUM(P4:P34)</f>
+        <v>538.202</v>
+      </c>
+      <c r="T35" s="5">
+        <f>SUM(T4:T34)</f>
+        <v>537.26700000000005</v>
+      </c>
+      <c r="AA35" s="5">
+        <f>SUM(AA32:AA34)</f>
         <v>2122.3530000000001</v>
       </c>
-      <c r="X35" s="5">
-        <f>SUM(X32:X34)</f>
+      <c r="AB35" s="5">
+        <f>SUM(AB32:AB34)</f>
         <v>2289.4630000000002</v>
       </c>
-      <c r="Y35" s="5">
-        <f>SUM(Y32:Y34)</f>
+      <c r="AC35" s="5">
+        <f>SUM(AC32:AC34)</f>
         <v>2237.2150000000001</v>
       </c>
-      <c r="AN35" s="18">
+      <c r="AR35" s="16">
         <f t="shared" si="32"/>
         <v>0.10999999999999999</v>
       </c>
-      <c r="AO35" s="2">
+      <c r="AS35" s="2">
         <f t="shared" si="31"/>
         <v>16657.899344433183</v>
       </c>
     </row>
-    <row r="36" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>23</v>
       </c>
@@ -3117,17 +3233,23 @@
         <v>305.06099999999998</v>
       </c>
       <c r="N36" s="4"/>
-      <c r="W36" s="2">
+      <c r="P36" s="2">
+        <v>241.22800000000001</v>
+      </c>
+      <c r="T36" s="2">
+        <v>212.429</v>
+      </c>
+      <c r="AA36" s="2">
         <v>230.839</v>
       </c>
-      <c r="X36" s="2">
+      <c r="AB36" s="2">
         <v>452.84199999999998</v>
       </c>
-      <c r="Y36" s="2">
+      <c r="AC36" s="2">
         <v>904.24400000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>24</v>
       </c>
@@ -3147,17 +3269,23 @@
         <v>25.5</v>
       </c>
       <c r="N37" s="4"/>
-      <c r="W37" s="2">
+      <c r="P37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="AA37" s="2">
         <v>26.289000000000001</v>
       </c>
-      <c r="X37" s="2">
+      <c r="AB37" s="2">
         <v>200.084</v>
       </c>
-      <c r="Y37" s="2">
+      <c r="AC37" s="2">
         <v>177.10599999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>25</v>
       </c>
@@ -3177,17 +3305,23 @@
         <v>50.692</v>
       </c>
       <c r="N38" s="4"/>
-      <c r="W38" s="2">
+      <c r="P38" s="2">
+        <v>47.634</v>
+      </c>
+      <c r="T38" s="2">
+        <v>54.707999999999998</v>
+      </c>
+      <c r="AA38" s="2">
         <v>181.715</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AB38" s="2">
         <v>182.82599999999999</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AC38" s="2">
         <v>227.303</v>
       </c>
     </row>
-    <row r="39" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>29</v>
       </c>
@@ -3209,20 +3343,28 @@
         <v>381.25299999999999</v>
       </c>
       <c r="N39" s="4"/>
-      <c r="W39" s="2">
-        <f>W36+W37+W38</f>
+      <c r="P39" s="2">
+        <f>+P36+P37+P38</f>
+        <v>289.36200000000002</v>
+      </c>
+      <c r="T39" s="2">
+        <f>+T36+T37+T38</f>
+        <v>267.637</v>
+      </c>
+      <c r="AA39" s="2">
+        <f>AA36+AA37+AA38</f>
         <v>438.84299999999996</v>
       </c>
-      <c r="X39" s="2">
-        <f>X36+X37+X38</f>
+      <c r="AB39" s="2">
+        <f>AB36+AB37+AB38</f>
         <v>835.75199999999995</v>
       </c>
-      <c r="Y39" s="2">
-        <f>Y36+Y37+Y38</f>
+      <c r="AC39" s="2">
+        <f>AC36+AC37+AC38</f>
         <v>1308.6529999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>28</v>
       </c>
@@ -3244,20 +3386,28 @@
         <v>192.20999999999998</v>
       </c>
       <c r="N40" s="4"/>
-      <c r="W40" s="2">
-        <f>W35-W39</f>
+      <c r="P40" s="2">
+        <f>+P35-P39</f>
+        <v>248.83999999999997</v>
+      </c>
+      <c r="T40" s="2">
+        <f>+T35-T39</f>
+        <v>269.63000000000005</v>
+      </c>
+      <c r="AA40" s="2">
+        <f>AA35-AA39</f>
         <v>1683.5100000000002</v>
       </c>
-      <c r="X40" s="2">
-        <f>X35-X39</f>
+      <c r="AB40" s="2">
+        <f>AB35-AB39</f>
         <v>1453.7110000000002</v>
       </c>
-      <c r="Y40" s="2">
-        <f>Y35-Y39</f>
+      <c r="AC40" s="2">
+        <f>AC35-AC39</f>
         <v>928.56200000000035</v>
       </c>
     </row>
-    <row r="41" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>26</v>
       </c>
@@ -3279,17 +3429,24 @@
         <v>-46.991999999999997</v>
       </c>
       <c r="N41" s="4"/>
-      <c r="W41" s="2">
+      <c r="P41" s="2">
+        <v>-46.948999999999998</v>
+      </c>
+      <c r="T41" s="2">
+        <f>-49.013+1.703</f>
+        <v>-47.309999999999995</v>
+      </c>
+      <c r="AA41" s="2">
         <v>-157.059</v>
       </c>
-      <c r="X41" s="2">
+      <c r="AB41" s="2">
         <v>-166.142</v>
       </c>
-      <c r="Y41" s="2">
+      <c r="AC41" s="2">
         <v>-187.96100000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>27</v>
       </c>
@@ -3311,20 +3468,28 @@
         <v>145.21799999999999</v>
       </c>
       <c r="N42" s="4"/>
-      <c r="W42" s="2">
-        <f>W40+W41</f>
+      <c r="P42" s="2">
+        <f t="shared" ref="P42:S42" si="33">+P40+P41</f>
+        <v>201.89099999999996</v>
+      </c>
+      <c r="T42" s="2">
+        <f>+T40+T41</f>
+        <v>222.32000000000005</v>
+      </c>
+      <c r="AA42" s="2">
+        <f>AA40+AA41</f>
         <v>1526.4510000000002</v>
       </c>
-      <c r="X42" s="2">
-        <f>X40+X41</f>
+      <c r="AB42" s="2">
+        <f>AB40+AB41</f>
         <v>1287.5690000000002</v>
       </c>
-      <c r="Y42" s="2">
-        <f>Y40+Y41</f>
+      <c r="AC42" s="2">
+        <f>AC40+AC41</f>
         <v>740.60100000000034</v>
       </c>
     </row>
-    <row r="43" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>30</v>
       </c>
@@ -3344,14 +3509,20 @@
         <v>77.763000000000005</v>
       </c>
       <c r="N43" s="4"/>
-      <c r="X43" s="2">
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="2">
         <v>187.232</v>
       </c>
-      <c r="Y43" s="2">
+      <c r="AC43" s="2">
         <v>621.47299999999996</v>
       </c>
     </row>
-    <row r="44" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>31</v>
       </c>
@@ -3373,20 +3544,28 @@
         <v>67.454999999999984</v>
       </c>
       <c r="N44" s="4"/>
-      <c r="W44" s="2">
-        <f>W42-W43</f>
+      <c r="P44" s="2">
+        <f t="shared" ref="P44:S44" si="34">+P42-P43</f>
+        <v>201.89099999999996</v>
+      </c>
+      <c r="T44" s="2">
+        <f>+T42-T43</f>
+        <v>222.32000000000005</v>
+      </c>
+      <c r="AA44" s="2">
+        <f>AA42-AA43</f>
         <v>1526.4510000000002</v>
       </c>
-      <c r="X44" s="2">
-        <f>X42-X43</f>
+      <c r="AB44" s="2">
+        <f>AB42-AB43</f>
         <v>1100.3370000000002</v>
       </c>
-      <c r="Y44" s="2">
-        <f>Y42-Y43</f>
+      <c r="AC44" s="2">
+        <f>AC42-AC43</f>
         <v>119.12800000000038</v>
       </c>
     </row>
-    <row r="45" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>32</v>
       </c>
@@ -3398,16 +3577,24 @@
         <f>+M44/M46</f>
         <v>0.11108714053746049</v>
       </c>
-      <c r="X45" s="1">
-        <f>X44/X46</f>
+      <c r="P45" s="1">
+        <f>+P44/P46</f>
+        <v>0.3332304492787112</v>
+      </c>
+      <c r="T45" s="1">
+        <f>+T44/T46</f>
+        <v>0.37245021041627585</v>
+      </c>
+      <c r="AB45" s="1">
+        <f>AB44/AB46</f>
         <v>1.812220838768331</v>
       </c>
-      <c r="Y45" s="1">
-        <f>Y44/Y46</f>
+      <c r="AC45" s="1">
+        <f>AC44/AC46</f>
         <v>0.19618460403409677</v>
       </c>
     </row>
-    <row r="46" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>1</v>
       </c>
@@ -3417,113 +3604,123 @@
       <c r="M46" s="4">
         <v>607.226</v>
       </c>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2">
+      <c r="O46" s="2"/>
+      <c r="P46" s="2">
+        <v>605.86</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2">
+        <v>596.91200000000003</v>
+      </c>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2">
         <v>607.17600000000004</v>
       </c>
-      <c r="Y46" s="2">
+      <c r="AC46" s="2">
         <v>607.22400000000005</v>
       </c>
     </row>
-    <row r="48" spans="2:41" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="X48" s="2">
-        <f>X30</f>
+      <c r="AB48" s="2">
+        <f>AB30</f>
         <v>2608.5420000000004</v>
       </c>
-      <c r="Y48" s="2">
-        <f>Y30</f>
+      <c r="AC48" s="2">
+        <f>AC30</f>
         <v>3231.4569999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="X49" s="2">
+      <c r="AB49" s="2">
         <v>479.60399999999998</v>
       </c>
-      <c r="Y49" s="2">
+      <c r="AC49" s="2">
         <v>441.96300000000002</v>
       </c>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="X50" s="2">
-        <f>X48-X49</f>
+      <c r="AB50" s="2">
+        <f>AB48-AB49</f>
         <v>2128.9380000000006</v>
       </c>
-      <c r="Y50" s="2">
-        <f>Y48-Y49</f>
+      <c r="AC50" s="2">
+        <f>AC48-AC49</f>
         <v>2789.4939999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="X51" s="2">
+      <c r="AB51" s="2">
         <v>184.511</v>
       </c>
-      <c r="Y51" s="2">
+      <c r="AC51" s="2">
         <v>222.96899999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="X52" s="2">
-        <f>X50-X51</f>
+      <c r="AB52" s="2">
+        <f>AB50-AB51</f>
         <v>1944.4270000000006</v>
       </c>
-      <c r="Y52" s="2">
-        <f>Y50-Y51</f>
+      <c r="AC52" s="2">
+        <f>AC50-AC51</f>
         <v>2566.5249999999996</v>
       </c>
     </row>
-    <row r="53" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="X53" s="2">
+      <c r="AB53" s="2">
         <f>6.876+193.208</f>
         <v>200.084</v>
       </c>
-      <c r="Y53" s="2">
+      <c r="AC53" s="2">
         <f>2.106+175</f>
         <v>177.10599999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="X54" s="2">
+      <c r="AB54" s="2">
         <v>127.295</v>
       </c>
-      <c r="Y54" s="2">
+      <c r="AC54" s="2">
         <v>145.15700000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="X55" s="2">
+      <c r="AB55" s="2">
         <f>34.855-7.339+16.093</f>
         <v>43.608999999999995</v>
       </c>
-      <c r="Y55" s="2">
+      <c r="AC55" s="2">
         <f>9.896-1.059</f>
         <v>8.8370000000000015</v>
       </c>
     </row>
-    <row r="56" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:29" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>33</v>
       </c>
@@ -3545,193 +3742,205 @@
         <v>1574.049</v>
       </c>
       <c r="N56" s="4"/>
-      <c r="X56" s="2">
-        <f>X52-X53-X54-X55</f>
+      <c r="AB56" s="2">
+        <f>AB52-AB53-AB54-AB55</f>
         <v>1573.4390000000005</v>
       </c>
-      <c r="Y56" s="2">
-        <f>Y52-Y53-Y54-Y55</f>
+      <c r="AC56" s="2">
+        <f>AC52-AC53-AC54-AC55</f>
         <v>2235.4249999999997</v>
       </c>
     </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="X57" s="2">
+      <c r="AB57" s="2">
         <v>607.17600000000004</v>
       </c>
-      <c r="Y57" s="2">
+      <c r="AC57" s="2">
         <v>607.22400000000005</v>
       </c>
     </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="X58" s="1">
-        <f>X56/X57</f>
+      <c r="AB58" s="1">
+        <f>AB56/AB57</f>
         <v>2.5914051280024251</v>
       </c>
-      <c r="Y58" s="1">
-        <f>Y56/Y57</f>
+      <c r="AC58" s="1">
+        <f>AC56/AC57</f>
         <v>3.6813844643821714</v>
       </c>
     </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Y60" s="2">
+      <c r="AC60" s="2">
         <f>1710.751+24.421+1.3+112.348+226.3+397.175</f>
         <v>2472.2950000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="Y61" s="2">
+      <c r="AC61" s="2">
         <f>691.319+13493.106</f>
         <v>14184.424999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Y62" s="2">
+      <c r="AC62" s="2">
         <f>16.83+19.767</f>
         <v>36.596999999999994</v>
       </c>
     </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Y63" s="2">
+      <c r="AC63" s="2">
         <f>90.52+29.629</f>
         <v>120.149</v>
       </c>
     </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="Y64" s="2">
-        <f>SUM(Y60:Y63)</f>
+      <c r="AC64" s="2">
+        <f>SUM(AC60:AC63)</f>
         <v>16813.466000000004</v>
       </c>
     </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="Y66" s="2">
+      <c r="AC66" s="2">
         <f>94.803</f>
         <v>94.802999999999997</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="Y67" s="2">
+      <c r="AC67" s="2">
         <v>7.9059999999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="Y68" s="2">
+      <c r="AC68" s="2">
         <v>54.161999999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Y69" s="2">
+      <c r="AC69" s="2">
         <f>997.512+6118.81</f>
         <v>7116.3220000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Y70" s="2">
+      <c r="AC70" s="2">
         <f>2.5+12.4</f>
         <v>14.9</v>
       </c>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="Y71" s="2">
-        <f>SUM(Y66:Y70)</f>
+      <c r="AC71" s="2">
+        <f>SUM(AC66:AC70)</f>
         <v>7288.0929999999998</v>
       </c>
     </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="W74" s="2">
+      <c r="P74" s="2">
+        <v>1641.654</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2">
+        <v>1322.847</v>
+      </c>
+      <c r="AA74" s="2">
         <v>2034.6289999999999</v>
       </c>
-      <c r="X74" s="2">
+      <c r="AB74" s="2">
         <v>2017.5360000000001</v>
       </c>
-      <c r="Y74" s="2">
+      <c r="AC74" s="2">
         <v>2143.98</v>
       </c>
     </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B75" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="W75" s="2">
+      <c r="AA75" s="2">
         <v>2182.2460000000001</v>
       </c>
-      <c r="X75" s="2">
+      <c r="AB75" s="2">
         <v>2191.502</v>
       </c>
-      <c r="Y75" s="2">
+      <c r="AC75" s="2">
         <v>1741.64</v>
       </c>
     </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="W76" s="2">
+      <c r="AA76" s="2">
         <v>543.952</v>
       </c>
-      <c r="X76" s="2">
+      <c r="AB76" s="2">
         <v>479.60399999999998</v>
       </c>
-      <c r="Y76" s="2">
+      <c r="AC76" s="2">
         <v>441.96300000000002</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W77" s="2">
+      <c r="AA77" s="2">
         <v>112.49</v>
       </c>
-      <c r="X77" s="2">
+      <c r="AB77" s="2">
         <v>285.18400000000003</v>
       </c>
-      <c r="Y77" s="2">
+      <c r="AC77" s="2">
         <v>333.322</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{1BC06817-F01A-4E2A-87EC-98397E258C7E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
